--- a/public/Export/Exportar_Copiapo_Puerto.xlsx
+++ b/public/Export/Exportar_Copiapo_Puerto.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pc-mac/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3962D1A-95BD-BF4D-81AE-92F75368BE5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC8CA1BF-55D7-2946-8406-5D4CDB1A27CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="0" windowWidth="27980" windowHeight="18000" tabRatio="845" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="845" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Utilidad" sheetId="2" r:id="rId1"/>
-    <sheet name="Flujos" sheetId="8" r:id="rId2"/>
-    <sheet name="Diag Proceso Balance" sheetId="7" r:id="rId3"/>
+    <sheet name="Datos Extra" sheetId="9" r:id="rId2"/>
+    <sheet name="Flujos" sheetId="8" r:id="rId3"/>
+    <sheet name="Diag Proceso Balance" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Utilidad!$J$38:$K$69</definedName>
@@ -173,7 +174,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>Concentraducto CNN</t>
   </si>
@@ -363,6 +364,27 @@
   <si>
     <t>Flujos</t>
   </si>
+  <si>
+    <t>Mediciones</t>
+  </si>
+  <si>
+    <t>% Cambio relativo</t>
+  </si>
+  <si>
+    <t>Max Var Ton</t>
+  </si>
+  <si>
+    <t>Max Var  FeT</t>
+  </si>
+  <si>
+    <t>TMSD</t>
+  </si>
+  <si>
+    <t>%Fe T</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
 </sst>
 </file>
 
@@ -373,7 +395,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -497,29 +519,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -534,8 +533,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="16"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -543,7 +557,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -551,20 +565,42 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="0"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="0"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,8 +631,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -725,12 +779,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -885,6 +948,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -948,62 +1025,105 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -4473,14 +4593,15 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:DN271"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="N70" sqref="A1:O70"/>
+    <sheetView topLeftCell="A84" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M82" sqref="E1:M82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.5" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="4" width="7.1640625" customWidth="1" outlineLevel="1"/>
+    <col min="1" max="1" width="10.6640625" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="7.1640625" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="3.83203125" customWidth="1"/>
     <col min="6" max="6" width="38" style="1" customWidth="1"/>
     <col min="7" max="14" width="13.5" customWidth="1"/>
@@ -4490,26 +4611,30 @@
     <col min="25" max="25" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="21">
-      <c r="A1" s="90">
+    <row r="1" spans="1:118" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="109">
         <v>116693.36667490551</v>
       </c>
-      <c r="B1" s="91">
+      <c r="B1" s="109">
+        <v>116693.36667490551</v>
+      </c>
+      <c r="C1" s="110">
         <v>0.65429897226012024</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
+      <c r="D1" s="110">
+        <v>0.65429897226012024</v>
+      </c>
+      <c r="E1" s="113"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
       <c r="P1" s="56"/>
       <c r="Q1" s="56"/>
       <c r="R1" s="56"/>
@@ -4614,26 +4739,30 @@
       <c r="DM1" s="58"/>
       <c r="DN1" s="58"/>
     </row>
-    <row r="2" spans="1:118">
-      <c r="A2" s="94">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A2" s="111">
         <v>-721.92297814554104</v>
       </c>
-      <c r="B2" s="95">
+      <c r="B2" s="111">
+        <v>-721.92297814554104</v>
+      </c>
+      <c r="C2" s="112">
         <v>0.65725700876426141</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
+      <c r="D2" s="112">
+        <v>0.65725700876426141</v>
+      </c>
+      <c r="E2" s="113"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
       <c r="P2" s="48"/>
       <c r="Q2" s="48"/>
       <c r="R2" s="48"/>
@@ -4738,26 +4867,30 @@
       <c r="DM2" s="58"/>
       <c r="DN2" s="58"/>
     </row>
-    <row r="3" spans="1:118" ht="13" customHeight="1">
-      <c r="A3" s="94">
+    <row r="3" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="111">
         <v>117415.28965309721</v>
       </c>
-      <c r="B3" s="95">
+      <c r="B3" s="111">
+        <v>117415.28965309721</v>
+      </c>
+      <c r="C3" s="112">
         <v>0.6543171596230668</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
+      <c r="D3" s="112">
+        <v>0.6543171596230668</v>
+      </c>
+      <c r="E3" s="113"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
       <c r="P3" s="60"/>
       <c r="Q3" s="60"/>
       <c r="R3" s="60"/>
@@ -4862,26 +4995,30 @@
       <c r="DM3" s="58"/>
       <c r="DN3" s="58"/>
     </row>
-    <row r="4" spans="1:118" ht="13" customHeight="1">
-      <c r="A4" s="94">
+    <row r="4" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="111">
         <v>0</v>
       </c>
-      <c r="B4" s="95">
+      <c r="B4" s="111">
         <v>0</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="92"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-      <c r="K4" s="98"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="98"/>
-      <c r="N4" s="98"/>
-      <c r="O4" s="98"/>
+      <c r="C4" s="112">
+        <v>0</v>
+      </c>
+      <c r="D4" s="112">
+        <v>0</v>
+      </c>
+      <c r="E4" s="113"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
       <c r="P4" s="60"/>
       <c r="Q4" s="60"/>
       <c r="R4" s="60"/>
@@ -4986,26 +5123,30 @@
       <c r="DM4" s="58"/>
       <c r="DN4" s="58"/>
     </row>
-    <row r="5" spans="1:118" ht="13" customHeight="1">
-      <c r="A5" s="94">
+    <row r="5" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="111">
         <v>117415.28965309721</v>
       </c>
-      <c r="B5" s="95">
+      <c r="B5" s="111">
+        <v>117415.28965309721</v>
+      </c>
+      <c r="C5" s="112">
         <v>0.6543171596230668</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
-      <c r="L5" s="98"/>
-      <c r="M5" s="98"/>
-      <c r="N5" s="98"/>
-      <c r="O5" s="98"/>
+      <c r="D5" s="112">
+        <v>0.6543171596230668</v>
+      </c>
+      <c r="E5" s="113"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="122"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
       <c r="P5" s="60"/>
       <c r="Q5" s="60"/>
       <c r="R5" s="60"/>
@@ -5110,26 +5251,30 @@
       <c r="DM5" s="58"/>
       <c r="DN5" s="58"/>
     </row>
-    <row r="6" spans="1:118" ht="13" customHeight="1">
-      <c r="A6" s="94">
+    <row r="6" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="111">
         <v>214.28587979820975</v>
       </c>
-      <c r="B6" s="95">
+      <c r="B6" s="111">
+        <v>214.28587979820975</v>
+      </c>
+      <c r="C6" s="112">
         <v>0.65731774861230396</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98"/>
-      <c r="N6" s="98"/>
-      <c r="O6" s="98"/>
+      <c r="D6" s="112">
+        <v>0.65731774861230396</v>
+      </c>
+      <c r="E6" s="113"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+      <c r="I6" s="122"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="122"/>
+      <c r="M6" s="122"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
       <c r="P6" s="60"/>
       <c r="Q6" s="60"/>
       <c r="R6" s="60"/>
@@ -5234,26 +5379,30 @@
       <c r="DM6" s="58"/>
       <c r="DN6" s="58"/>
     </row>
-    <row r="7" spans="1:118" ht="13" customHeight="1">
-      <c r="A7" s="94">
+    <row r="7" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="111">
         <v>117201.00377330006</v>
       </c>
-      <c r="B7" s="95">
+      <c r="B7" s="111">
+        <v>117201.00377330006</v>
+      </c>
+      <c r="C7" s="112">
         <v>0.65431167345956198</v>
       </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
+      <c r="D7" s="112">
+        <v>0.65431167345956198</v>
+      </c>
+      <c r="E7" s="113"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
+      <c r="H7" s="122"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
       <c r="P7" s="60"/>
       <c r="Q7" s="60"/>
       <c r="R7" s="60"/>
@@ -5358,26 +5507,30 @@
       <c r="DM7" s="58"/>
       <c r="DN7" s="58"/>
     </row>
-    <row r="8" spans="1:118" ht="13" customHeight="1">
-      <c r="A8" s="92">
+    <row r="8" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="113">
         <v>0</v>
       </c>
-      <c r="B8" s="95">
+      <c r="B8" s="113">
+        <v>0</v>
+      </c>
+      <c r="C8" s="112">
         <v>0.6573</v>
       </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="98"/>
+      <c r="D8" s="112">
+        <v>0.6573</v>
+      </c>
+      <c r="E8" s="113"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="122"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="122"/>
+      <c r="M8" s="122"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
       <c r="P8" s="60"/>
       <c r="Q8" s="60"/>
       <c r="R8" s="60"/>
@@ -5482,26 +5635,30 @@
       <c r="DM8" s="58"/>
       <c r="DN8" s="58"/>
     </row>
-    <row r="9" spans="1:118" ht="13" customHeight="1">
-      <c r="A9" s="94">
+    <row r="9" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="111">
         <v>117201.00377330006</v>
       </c>
-      <c r="B9" s="95">
+      <c r="B9" s="111">
+        <v>117201.00377330006</v>
+      </c>
+      <c r="C9" s="112">
         <v>0.65431167345956198</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="98"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="98"/>
+      <c r="D9" s="112">
+        <v>0.65431167345956198</v>
+      </c>
+      <c r="E9" s="113"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="122"/>
+      <c r="M9" s="122"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
       <c r="P9" s="60"/>
       <c r="Q9" s="60"/>
       <c r="R9" s="60"/>
@@ -5606,26 +5763,30 @@
       <c r="DM9" s="58"/>
       <c r="DN9" s="58"/>
     </row>
-    <row r="10" spans="1:118" ht="13" customHeight="1">
-      <c r="A10" s="94">
+    <row r="10" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="111">
         <v>0</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="111">
         <v>0</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="98"/>
-      <c r="I10" s="98"/>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
+      <c r="C10" s="112">
+        <v>0</v>
+      </c>
+      <c r="D10" s="112">
+        <v>0</v>
+      </c>
+      <c r="E10" s="113"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
       <c r="P10" s="60"/>
       <c r="Q10" s="60"/>
       <c r="R10" s="60"/>
@@ -5730,26 +5891,30 @@
       <c r="DM10" s="58"/>
       <c r="DN10" s="58"/>
     </row>
-    <row r="11" spans="1:118" ht="13" customHeight="1">
-      <c r="A11" s="92">
+    <row r="11" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="113">
         <v>0</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="113">
+        <v>0</v>
+      </c>
+      <c r="C11" s="112">
         <v>0.65431167345956198</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="98"/>
+      <c r="D11" s="112">
+        <v>0.65431167345956198</v>
+      </c>
+      <c r="E11" s="113"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
       <c r="P11" s="60"/>
       <c r="Q11" s="60"/>
       <c r="R11" s="60"/>
@@ -5854,26 +6019,30 @@
       <c r="DM11" s="58"/>
       <c r="DN11" s="58"/>
     </row>
-    <row r="12" spans="1:118" ht="13" customHeight="1">
-      <c r="A12" s="99">
+    <row r="12" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="114">
         <v>-4694.9962266999401</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="114">
+        <v>-4694.9962266999401</v>
+      </c>
+      <c r="C12" s="112">
         <v>0.64102711639907584</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
+      <c r="D12" s="112">
+        <v>0.64102711639907584</v>
+      </c>
+      <c r="E12" s="113"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
       <c r="P12" s="60"/>
       <c r="Q12" s="60"/>
       <c r="R12" s="60"/>
@@ -5978,26 +6147,30 @@
       <c r="DM12" s="58"/>
       <c r="DN12" s="58"/>
     </row>
-    <row r="13" spans="1:118" ht="13" customHeight="1">
-      <c r="A13" s="100">
+    <row r="13" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="115">
         <v>121896</v>
       </c>
-      <c r="B13" s="101">
+      <c r="B13" s="115">
+        <v>121896</v>
+      </c>
+      <c r="C13" s="116">
         <v>0.65380000000000005</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="98"/>
+      <c r="D13" s="116">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="E13" s="113"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
       <c r="P13" s="60"/>
       <c r="Q13" s="60"/>
       <c r="R13" s="60"/>
@@ -6102,26 +6275,30 @@
       <c r="DM13" s="58"/>
       <c r="DN13" s="58"/>
     </row>
-    <row r="14" spans="1:118" ht="13" customHeight="1">
-      <c r="A14" s="90">
+    <row r="14" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="109">
         <v>73073.256251293904</v>
       </c>
-      <c r="B14" s="91">
+      <c r="B14" s="109">
+        <v>73073.256251293904</v>
+      </c>
+      <c r="C14" s="110">
         <v>0.64890549893004068</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="98"/>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="98"/>
-      <c r="L14" s="98"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="98"/>
+      <c r="D14" s="110">
+        <v>0.64890549893004068</v>
+      </c>
+      <c r="E14" s="113"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="122"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
       <c r="P14" s="60"/>
       <c r="Q14" s="60"/>
       <c r="R14" s="60"/>
@@ -6226,26 +6403,30 @@
       <c r="DM14" s="58"/>
       <c r="DN14" s="58"/>
     </row>
-    <row r="15" spans="1:118" ht="13" customHeight="1">
-      <c r="A15" s="94">
+    <row r="15" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="111">
         <v>152.41625129390741</v>
       </c>
-      <c r="B15" s="95">
+      <c r="B15" s="111">
+        <v>152.41625129390741</v>
+      </c>
+      <c r="C15" s="112">
         <v>0.65067471721576897</v>
       </c>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="98"/>
+      <c r="D15" s="112">
+        <v>0.65067471721576897</v>
+      </c>
+      <c r="E15" s="113"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="122"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
       <c r="P15" s="60"/>
       <c r="Q15" s="60"/>
       <c r="R15" s="60"/>
@@ -6350,26 +6531,30 @@
       <c r="DM15" s="58"/>
       <c r="DN15" s="58"/>
     </row>
-    <row r="16" spans="1:118" ht="13" customHeight="1">
-      <c r="A16" s="94">
+    <row r="16" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="111">
         <v>72920.84</v>
       </c>
-      <c r="B16" s="95">
+      <c r="B16" s="111">
+        <v>72920.84</v>
+      </c>
+      <c r="C16" s="112">
         <v>0.64890180098006056</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="98"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="98"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="98"/>
+      <c r="D16" s="112">
+        <v>0.64890180098006056</v>
+      </c>
+      <c r="E16" s="113"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
       <c r="P16" s="60"/>
       <c r="Q16" s="60"/>
       <c r="R16" s="60"/>
@@ -6474,26 +6659,30 @@
       <c r="DM16" s="58"/>
       <c r="DN16" s="58"/>
     </row>
-    <row r="17" spans="1:118" ht="13" customHeight="1">
-      <c r="A17" s="94">
+    <row r="17" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="111">
         <v>0</v>
       </c>
-      <c r="B17" s="95">
+      <c r="B17" s="111">
         <v>0</v>
       </c>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="98"/>
+      <c r="C17" s="112">
+        <v>0</v>
+      </c>
+      <c r="D17" s="112">
+        <v>0</v>
+      </c>
+      <c r="E17" s="113"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="122"/>
+      <c r="M17" s="122"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
       <c r="P17" s="60"/>
       <c r="Q17" s="60"/>
       <c r="R17" s="60"/>
@@ -6598,26 +6787,30 @@
       <c r="DM17" s="58"/>
       <c r="DN17" s="58"/>
     </row>
-    <row r="18" spans="1:118" ht="13" customHeight="1">
-      <c r="A18" s="94">
+    <row r="18" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="111">
         <v>72920.84</v>
       </c>
-      <c r="B18" s="95">
+      <c r="B18" s="111">
+        <v>72920.84</v>
+      </c>
+      <c r="C18" s="112">
         <v>0.64890180098006056</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="92"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="98"/>
-      <c r="H18" s="98"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="98"/>
-      <c r="K18" s="98"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="98"/>
+      <c r="D18" s="112">
+        <v>0.64890180098006056</v>
+      </c>
+      <c r="E18" s="113"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
       <c r="P18" s="60"/>
       <c r="Q18" s="60"/>
       <c r="R18" s="60"/>
@@ -6722,26 +6915,30 @@
       <c r="DM18" s="58"/>
       <c r="DN18" s="58"/>
     </row>
-    <row r="19" spans="1:118" ht="13" customHeight="1">
-      <c r="A19" s="94">
+    <row r="19" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="111">
         <v>73.999946397426484</v>
       </c>
-      <c r="B19" s="95">
+      <c r="B19" s="111">
+        <v>73.999946397426484</v>
+      </c>
+      <c r="C19" s="112">
         <v>0.65067471721576897</v>
       </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="98"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="98"/>
-      <c r="K19" s="98"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="98"/>
-      <c r="O19" s="98"/>
+      <c r="D19" s="112">
+        <v>0.65067471721576897</v>
+      </c>
+      <c r="E19" s="113"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="122"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
       <c r="P19" s="60"/>
       <c r="Q19" s="60"/>
       <c r="R19" s="60"/>
@@ -6846,26 +7043,30 @@
       <c r="DM19" s="58"/>
       <c r="DN19" s="58"/>
     </row>
-    <row r="20" spans="1:118" ht="13" customHeight="1">
-      <c r="A20" s="94">
+    <row r="20" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="111">
         <v>72846.840053602573</v>
       </c>
-      <c r="B20" s="95">
+      <c r="B20" s="111">
+        <v>72846.840053602573</v>
+      </c>
+      <c r="C20" s="112">
         <v>0.64889999999999992</v>
       </c>
-      <c r="C20" s="92"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="98"/>
+      <c r="D20" s="112">
+        <v>0.64889999999999992</v>
+      </c>
+      <c r="E20" s="113"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
       <c r="P20" s="60"/>
       <c r="Q20" s="60"/>
       <c r="R20" s="60"/>
@@ -6970,26 +7171,30 @@
       <c r="DM20" s="58"/>
       <c r="DN20" s="58"/>
     </row>
-    <row r="21" spans="1:118" ht="13" customHeight="1">
-      <c r="A21" s="92">
+    <row r="21" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="113">
         <v>0</v>
       </c>
-      <c r="B21" s="95">
+      <c r="B21" s="113">
         <v>0</v>
       </c>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="98"/>
+      <c r="C21" s="112">
+        <v>0</v>
+      </c>
+      <c r="D21" s="112">
+        <v>0</v>
+      </c>
+      <c r="E21" s="113"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
       <c r="P21" s="60"/>
       <c r="Q21" s="60"/>
       <c r="R21" s="60"/>
@@ -7094,26 +7299,30 @@
       <c r="DM21" s="58"/>
       <c r="DN21" s="58"/>
     </row>
-    <row r="22" spans="1:118" ht="13" customHeight="1">
-      <c r="A22" s="94">
+    <row r="22" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="111">
         <v>72846.840053602573</v>
       </c>
-      <c r="B22" s="95">
+      <c r="B22" s="111">
+        <v>72846.840053602573</v>
+      </c>
+      <c r="C22" s="112">
         <v>0.64889999999999992</v>
       </c>
-      <c r="C22" s="92"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="98"/>
-      <c r="K22" s="98"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="98"/>
-      <c r="O22" s="98"/>
+      <c r="D22" s="112">
+        <v>0.64889999999999992</v>
+      </c>
+      <c r="E22" s="113"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
       <c r="P22" s="60"/>
       <c r="Q22" s="60"/>
       <c r="R22" s="60"/>
@@ -7218,26 +7427,30 @@
       <c r="DM22" s="58"/>
       <c r="DN22" s="58"/>
     </row>
-    <row r="23" spans="1:118" ht="12.75" customHeight="1">
-      <c r="A23" s="94">
+    <row r="23" spans="1:118" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="111">
         <v>0</v>
       </c>
-      <c r="B23" s="95">
+      <c r="B23" s="111">
         <v>0</v>
       </c>
-      <c r="C23" s="92"/>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="98"/>
+      <c r="C23" s="112">
+        <v>0</v>
+      </c>
+      <c r="D23" s="112">
+        <v>0</v>
+      </c>
+      <c r="E23" s="113"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="122"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="122"/>
+      <c r="M23" s="122"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
       <c r="P23" s="60"/>
       <c r="Q23" s="60"/>
       <c r="R23" s="60"/>
@@ -7342,26 +7555,30 @@
       <c r="DM23" s="58"/>
       <c r="DN23" s="58"/>
     </row>
-    <row r="24" spans="1:118" ht="13" customHeight="1">
-      <c r="A24" s="94">
+    <row r="24" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="111">
         <v>72846.840053602587</v>
       </c>
-      <c r="B24" s="95">
+      <c r="B24" s="111">
+        <v>72846.840053602587</v>
+      </c>
+      <c r="C24" s="112">
         <v>0.64890000000000003</v>
       </c>
-      <c r="C24" s="92"/>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="98"/>
-      <c r="H24" s="98"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
+      <c r="D24" s="112">
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="E24" s="113"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="122"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
       <c r="P24" s="60"/>
       <c r="Q24" s="60"/>
       <c r="R24" s="60"/>
@@ -7466,26 +7683,30 @@
       <c r="DM24" s="58"/>
       <c r="DN24" s="58"/>
     </row>
-    <row r="25" spans="1:118" ht="13" customHeight="1">
-      <c r="A25" s="92">
+    <row r="25" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="113">
         <v>0</v>
       </c>
-      <c r="B25" s="95">
+      <c r="B25" s="113">
         <v>0</v>
       </c>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
+      <c r="C25" s="112">
+        <v>0</v>
+      </c>
+      <c r="D25" s="112">
+        <v>0</v>
+      </c>
+      <c r="E25" s="113"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
       <c r="P25" s="60"/>
       <c r="Q25" s="60"/>
       <c r="R25" s="60"/>
@@ -7590,26 +7811,30 @@
       <c r="DM25" s="58"/>
       <c r="DN25" s="58"/>
     </row>
-    <row r="26" spans="1:118" ht="13" customHeight="1">
-      <c r="A26" s="99">
+    <row r="26" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="114">
         <v>15475.332453602576</v>
       </c>
-      <c r="B26" s="95">
+      <c r="B26" s="114">
+        <v>15475.332453602576</v>
+      </c>
+      <c r="C26" s="112">
         <v>0.63518302232404666</v>
       </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="98"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
+      <c r="D26" s="112">
+        <v>0.63518302232404666</v>
+      </c>
+      <c r="E26" s="113"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
       <c r="P26" s="60"/>
       <c r="Q26" s="60"/>
       <c r="R26" s="60"/>
@@ -7714,26 +7939,30 @@
       <c r="DM26" s="58"/>
       <c r="DN26" s="58"/>
     </row>
-    <row r="27" spans="1:118" ht="13" customHeight="1">
-      <c r="A27" s="100">
+    <row r="27" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="115">
         <v>57371.507599999997</v>
       </c>
-      <c r="B27" s="101">
+      <c r="B27" s="115">
+        <v>57371.507599999997</v>
+      </c>
+      <c r="C27" s="116">
         <v>0.65259999999999996</v>
       </c>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="98"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="98"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
+      <c r="D27" s="116">
+        <v>0.65259999999999996</v>
+      </c>
+      <c r="E27" s="113"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="122"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
       <c r="P27" s="60"/>
       <c r="Q27" s="60"/>
       <c r="R27" s="60"/>
@@ -7838,26 +8067,30 @@
       <c r="DM27" s="58"/>
       <c r="DN27" s="58"/>
     </row>
-    <row r="28" spans="1:118" ht="13" customHeight="1">
-      <c r="A28" s="94">
+    <row r="28" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="111">
         <v>0</v>
       </c>
-      <c r="B28" s="95">
+      <c r="B28" s="111">
         <v>0</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="98"/>
-      <c r="H28" s="98"/>
-      <c r="I28" s="98"/>
-      <c r="J28" s="98"/>
-      <c r="K28" s="98"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="98"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
+      <c r="C28" s="112">
+        <v>0</v>
+      </c>
+      <c r="D28" s="112">
+        <v>0</v>
+      </c>
+      <c r="E28" s="113"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="122"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
       <c r="P28" s="60"/>
       <c r="Q28" s="60"/>
       <c r="R28" s="60"/>
@@ -7962,26 +8195,30 @@
       <c r="DM28" s="58"/>
       <c r="DN28" s="58"/>
     </row>
-    <row r="29" spans="1:118" ht="13" customHeight="1">
-      <c r="A29" s="94">
+    <row r="29" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="111">
         <v>0</v>
       </c>
-      <c r="B29" s="95">
+      <c r="B29" s="111">
         <v>0</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="98"/>
-      <c r="I29" s="98"/>
-      <c r="J29" s="98"/>
-      <c r="K29" s="98"/>
-      <c r="L29" s="98"/>
-      <c r="M29" s="98"/>
-      <c r="N29" s="98"/>
-      <c r="O29" s="98"/>
+      <c r="C29" s="112">
+        <v>0</v>
+      </c>
+      <c r="D29" s="112">
+        <v>0</v>
+      </c>
+      <c r="E29" s="113"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
       <c r="P29" s="60"/>
       <c r="Q29" s="60"/>
       <c r="R29" s="60"/>
@@ -8086,26 +8323,30 @@
       <c r="DM29" s="58"/>
       <c r="DN29" s="58"/>
     </row>
-    <row r="30" spans="1:118" ht="13" customHeight="1">
-      <c r="A30" s="94">
+    <row r="30" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="111">
         <v>0</v>
       </c>
-      <c r="B30" s="95">
+      <c r="B30" s="111">
         <v>0</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="98"/>
-      <c r="J30" s="98"/>
-      <c r="K30" s="98"/>
-      <c r="L30" s="98"/>
-      <c r="M30" s="98"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
+      <c r="C30" s="112">
+        <v>0</v>
+      </c>
+      <c r="D30" s="112">
+        <v>0</v>
+      </c>
+      <c r="E30" s="113"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="122"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
       <c r="P30" s="60"/>
       <c r="Q30" s="60"/>
       <c r="R30" s="60"/>
@@ -8210,26 +8451,30 @@
       <c r="DM30" s="58"/>
       <c r="DN30" s="58"/>
     </row>
-    <row r="31" spans="1:118" ht="13" customHeight="1">
-      <c r="A31" s="94">
+    <row r="31" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="111">
         <v>0</v>
       </c>
-      <c r="B31" s="95">
+      <c r="B31" s="111">
         <v>0</v>
       </c>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="98"/>
+      <c r="C31" s="112">
+        <v>0</v>
+      </c>
+      <c r="D31" s="112">
+        <v>0</v>
+      </c>
+      <c r="E31" s="113"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="122"/>
+      <c r="M31" s="122"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
       <c r="P31" s="60"/>
       <c r="Q31" s="60"/>
       <c r="R31" s="60"/>
@@ -8334,26 +8579,30 @@
       <c r="DM31" s="58"/>
       <c r="DN31" s="58"/>
     </row>
-    <row r="32" spans="1:118" ht="13" customHeight="1">
-      <c r="A32" s="103">
+    <row r="32" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="117">
         <v>179267.50760000001</v>
       </c>
-      <c r="B32" s="95">
+      <c r="B32" s="117">
+        <v>179267.50760000001</v>
+      </c>
+      <c r="C32" s="112">
         <v>0.65341596047135531</v>
       </c>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
-      <c r="N32" s="98"/>
-      <c r="O32" s="98"/>
+      <c r="D32" s="112">
+        <v>0.65341596047135531</v>
+      </c>
+      <c r="E32" s="113"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
       <c r="P32" s="60"/>
       <c r="Q32" s="60"/>
       <c r="R32" s="60"/>
@@ -8458,22 +8707,22 @@
       <c r="DM32" s="58"/>
       <c r="DN32" s="58"/>
     </row>
-    <row r="33" spans="1:118" ht="13" customHeight="1">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="98"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="98"/>
-      <c r="L33" s="98"/>
-      <c r="M33" s="98"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="98"/>
+    <row r="33" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="113"/>
+      <c r="D33" s="113"/>
+      <c r="E33" s="113"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
       <c r="P33" s="60"/>
       <c r="Q33" s="60"/>
       <c r="R33" s="60"/>
@@ -8578,22 +8827,22 @@
       <c r="DM33" s="58"/>
       <c r="DN33" s="58"/>
     </row>
-    <row r="34" spans="1:118" ht="13" customHeight="1">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="92"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="98"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="98"/>
+    <row r="34" spans="1:118" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="113"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="113"/>
+      <c r="D34" s="113"/>
+      <c r="E34" s="113"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="122"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
       <c r="P34" s="60"/>
       <c r="Q34" s="60"/>
       <c r="R34" s="60"/>
@@ -8698,22 +8947,22 @@
       <c r="DM34" s="58"/>
       <c r="DN34" s="58"/>
     </row>
-    <row r="35" spans="1:118">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="92"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="92"/>
-      <c r="H35" s="92"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="92"/>
-      <c r="K35" s="92"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="92"/>
-      <c r="N35" s="92"/>
-      <c r="O35" s="92"/>
+    <row r="35" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A35" s="113"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
+      <c r="D35" s="113"/>
+      <c r="E35" s="113"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="113"/>
+      <c r="H35" s="113"/>
+      <c r="I35" s="113"/>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113"/>
+      <c r="L35" s="113"/>
+      <c r="M35" s="113"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="56"/>
       <c r="R35" s="56"/>
@@ -8818,28 +9067,28 @@
       <c r="DM35" s="58"/>
       <c r="DN35" s="58"/>
     </row>
-    <row r="36" spans="1:118" ht="38.5" customHeight="1">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="105" t="s">
+    <row r="36" spans="1:118" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="113"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="124"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="113"/>
+      <c r="J36" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="92"/>
-      <c r="N36" s="106"/>
-      <c r="O36" s="106"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="70"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="125"/>
+      <c r="M36" s="113"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="118"/>
+      <c r="P36" s="75"/>
+      <c r="Q36" s="75"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
       <c r="V36" s="56"/>
@@ -8940,28 +9189,28 @@
       <c r="DM36" s="58"/>
       <c r="DN36" s="58"/>
     </row>
-    <row r="37" spans="1:118">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="92"/>
-      <c r="E37" s="92"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="98"/>
-      <c r="H37" s="98"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98" t="s">
+    <row r="37" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A37" s="56"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="113"/>
+      <c r="F37" s="121"/>
+      <c r="G37" s="122"/>
+      <c r="H37" s="122"/>
+      <c r="I37" s="122"/>
+      <c r="J37" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="K37" s="98" t="s">
+      <c r="K37" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="L37" s="98" t="s">
+      <c r="L37" s="122" t="s">
         <v>18</v>
       </c>
-      <c r="M37" s="92"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
+      <c r="M37" s="113"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
       <c r="P37" s="50"/>
       <c r="Q37" s="56"/>
       <c r="R37" s="50"/>
@@ -9066,31 +9315,31 @@
       <c r="DM37" s="58"/>
       <c r="DN37" s="58"/>
     </row>
-    <row r="38" spans="1:118" ht="24" customHeight="1">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="92"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="108"/>
-      <c r="G38" s="99"/>
-      <c r="H38" s="109"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="90">
-        <f>A1</f>
+    <row r="38" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="56"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="113"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="113"/>
+      <c r="J38" s="109">
+        <f>B1</f>
         <v>116693.36667490551</v>
       </c>
-      <c r="K38" s="91">
-        <f>IF(B1&gt;1,B1/100,B1)</f>
+      <c r="K38" s="110">
+        <f>IF(D1&gt;1,D1/100,D1)</f>
         <v>0.65429897226012024</v>
       </c>
-      <c r="L38" s="94">
+      <c r="L38" s="111">
         <f>J38*K38</f>
         <v>76352.349884964045</v>
       </c>
-      <c r="M38" s="99"/>
-      <c r="N38" s="110"/>
-      <c r="O38" s="110"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
       <c r="P38" s="63"/>
       <c r="Q38" s="65"/>
       <c r="R38" s="55"/>
@@ -9195,31 +9444,31 @@
       <c r="DM38" s="58"/>
       <c r="DN38" s="58"/>
     </row>
-    <row r="39" spans="1:118" ht="24" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
-      <c r="C39" s="94"/>
-      <c r="D39" s="94"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="90">
-        <f t="shared" ref="J39:J69" si="0">A2</f>
+    <row r="39" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="113"/>
+      <c r="F39" s="121"/>
+      <c r="G39" s="114"/>
+      <c r="H39" s="112"/>
+      <c r="I39" s="113"/>
+      <c r="J39" s="109">
+        <f t="shared" ref="J39:J69" si="0">B2</f>
         <v>-721.92297814554104</v>
       </c>
-      <c r="K39" s="91">
-        <f t="shared" ref="K39:K69" si="1">IF(B2&gt;1,B2/100,B2)</f>
+      <c r="K39" s="110">
+        <f t="shared" ref="K39:K69" si="1">IF(D2&gt;1,D2/100,D2)</f>
         <v>0.65725700876426141</v>
       </c>
-      <c r="L39" s="94">
+      <c r="L39" s="111">
         <f t="shared" ref="L39:L69" si="2">J39*K39</f>
         <v>-474.48893717412557</v>
       </c>
-      <c r="M39" s="92"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
+      <c r="M39" s="113"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
       <c r="P39" s="55"/>
       <c r="Q39" s="65"/>
       <c r="R39" s="55"/>
@@ -9324,31 +9573,31 @@
       <c r="DM39" s="58"/>
       <c r="DN39" s="58"/>
     </row>
-    <row r="40" spans="1:118" ht="24" customHeight="1">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="95"/>
-      <c r="J40" s="90">
+    <row r="40" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="114"/>
+      <c r="H40" s="127"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="109">
         <f t="shared" si="0"/>
         <v>117415.28965309721</v>
       </c>
-      <c r="K40" s="91">
+      <c r="K40" s="110">
         <f t="shared" si="1"/>
         <v>0.6543171596230668</v>
       </c>
-      <c r="L40" s="94">
+      <c r="L40" s="111">
         <f t="shared" si="2"/>
         <v>76826.838822134232</v>
       </c>
-      <c r="M40" s="92"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
       <c r="P40" s="55"/>
       <c r="Q40" s="65"/>
       <c r="R40" s="55"/>
@@ -9453,31 +9702,31 @@
       <c r="DM40" s="58"/>
       <c r="DN40" s="58"/>
     </row>
-    <row r="41" spans="1:118" ht="24" customHeight="1">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="90">
+    <row r="41" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="114"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="113"/>
+      <c r="J41" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K41" s="91">
+      <c r="K41" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L41" s="94">
+      <c r="L41" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M41" s="92"/>
-      <c r="N41" s="110"/>
-      <c r="O41" s="110"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
       <c r="P41" s="55"/>
       <c r="Q41" s="65"/>
       <c r="R41" s="55"/>
@@ -9582,31 +9831,31 @@
       <c r="DM41" s="58"/>
       <c r="DN41" s="58"/>
     </row>
-    <row r="42" spans="1:118" ht="24" customHeight="1">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="99"/>
-      <c r="H42" s="95"/>
-      <c r="I42" s="92"/>
-      <c r="J42" s="90">
+    <row r="42" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="109">
         <f t="shared" si="0"/>
         <v>117415.28965309721</v>
       </c>
-      <c r="K42" s="91">
+      <c r="K42" s="110">
         <f t="shared" si="1"/>
         <v>0.6543171596230668</v>
       </c>
-      <c r="L42" s="94">
+      <c r="L42" s="111">
         <f t="shared" si="2"/>
         <v>76826.838822134232</v>
       </c>
-      <c r="M42" s="92"/>
-      <c r="N42" s="110"/>
-      <c r="O42" s="110"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
       <c r="P42" s="55"/>
       <c r="Q42" s="65"/>
       <c r="R42" s="55"/>
@@ -9711,31 +9960,31 @@
       <c r="DM42" s="58"/>
       <c r="DN42" s="58"/>
     </row>
-    <row r="43" spans="1:118" ht="24" customHeight="1">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
-      <c r="C43" s="94"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="90">
+    <row r="43" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="56"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="121"/>
+      <c r="G43" s="114"/>
+      <c r="H43" s="112"/>
+      <c r="I43" s="113"/>
+      <c r="J43" s="109">
         <f t="shared" si="0"/>
         <v>214.28587979820975</v>
       </c>
-      <c r="K43" s="91">
+      <c r="K43" s="110">
         <f t="shared" si="1"/>
         <v>0.65731774861230396</v>
       </c>
-      <c r="L43" s="94">
+      <c r="L43" s="111">
         <f t="shared" si="2"/>
         <v>140.85391206836601</v>
       </c>
-      <c r="M43" s="92"/>
-      <c r="N43" s="110"/>
-      <c r="O43" s="110"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
       <c r="P43" s="55"/>
       <c r="Q43" s="65"/>
       <c r="R43" s="55"/>
@@ -9840,31 +10089,31 @@
       <c r="DM43" s="58"/>
       <c r="DN43" s="58"/>
     </row>
-    <row r="44" spans="1:118" ht="24" customHeight="1">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="99"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="90">
+    <row r="44" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="56"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="113"/>
+      <c r="J44" s="109">
         <f t="shared" si="0"/>
         <v>117201.00377330006</v>
       </c>
-      <c r="K44" s="91">
+      <c r="K44" s="110">
         <f t="shared" si="1"/>
         <v>0.65431167345956198</v>
       </c>
-      <c r="L44" s="94">
+      <c r="L44" s="111">
         <f t="shared" si="2"/>
         <v>76685.984910048399</v>
       </c>
-      <c r="M44" s="94"/>
-      <c r="N44" s="110"/>
-      <c r="O44" s="110"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
       <c r="P44" s="64"/>
       <c r="Q44" s="65"/>
       <c r="R44" s="55"/>
@@ -9969,31 +10218,31 @@
       <c r="DM44" s="58"/>
       <c r="DN44" s="58"/>
     </row>
-    <row r="45" spans="1:118" ht="24" customHeight="1">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92"/>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="92"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="99"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="92"/>
-      <c r="J45" s="90">
+    <row r="45" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="56"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="121"/>
+      <c r="G45" s="114"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K45" s="91">
+      <c r="K45" s="110">
         <f t="shared" si="1"/>
         <v>0.6573</v>
       </c>
-      <c r="L45" s="94">
+      <c r="L45" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M45" s="94"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="110"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
       <c r="P45" s="55"/>
       <c r="Q45" s="65"/>
       <c r="R45" s="55"/>
@@ -10098,31 +10347,31 @@
       <c r="DM45" s="58"/>
       <c r="DN45" s="58"/>
     </row>
-    <row r="46" spans="1:118" ht="24" customHeight="1">
-      <c r="A46" s="92"/>
-      <c r="B46" s="92"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="99"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="90">
+    <row r="46" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="56"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="113"/>
+      <c r="F46" s="121"/>
+      <c r="G46" s="114"/>
+      <c r="H46" s="127"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="109">
         <f t="shared" si="0"/>
         <v>117201.00377330006</v>
       </c>
-      <c r="K46" s="91">
+      <c r="K46" s="110">
         <f t="shared" si="1"/>
         <v>0.65431167345956198</v>
       </c>
-      <c r="L46" s="94">
+      <c r="L46" s="111">
         <f t="shared" si="2"/>
         <v>76685.984910048399</v>
       </c>
-      <c r="M46" s="99"/>
-      <c r="N46" s="110"/>
-      <c r="O46" s="110"/>
+      <c r="M46" s="114"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
       <c r="P46" s="55"/>
       <c r="Q46" s="65"/>
       <c r="R46" s="55"/>
@@ -10227,31 +10476,31 @@
       <c r="DM46" s="58"/>
       <c r="DN46" s="58"/>
     </row>
-    <row r="47" spans="1:118" ht="24" customHeight="1">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="90">
+    <row r="47" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="56"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="112"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K47" s="91">
+      <c r="K47" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L47" s="94">
+      <c r="L47" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M47" s="94"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="110"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
       <c r="P47" s="55"/>
       <c r="Q47" s="65"/>
       <c r="R47" s="55"/>
@@ -10356,31 +10605,31 @@
       <c r="DM47" s="58"/>
       <c r="DN47" s="58"/>
     </row>
-    <row r="48" spans="1:118" ht="24" customHeight="1">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="99"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="90">
+    <row r="48" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="56"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="121"/>
+      <c r="G48" s="114"/>
+      <c r="H48" s="112"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K48" s="91">
+      <c r="K48" s="110">
         <f t="shared" si="1"/>
         <v>0.65431167345956198</v>
       </c>
-      <c r="L48" s="94">
+      <c r="L48" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M48" s="92"/>
-      <c r="N48" s="110"/>
-      <c r="O48" s="110"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
       <c r="P48" s="55"/>
       <c r="Q48" s="65"/>
       <c r="R48" s="55"/>
@@ -10485,31 +10734,31 @@
       <c r="DM48" s="58"/>
       <c r="DN48" s="58"/>
     </row>
-    <row r="49" spans="1:118" ht="24" customHeight="1">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
-      <c r="C49" s="94"/>
-      <c r="D49" s="94"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="99"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="90">
+    <row r="49" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="56"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="121"/>
+      <c r="G49" s="114"/>
+      <c r="H49" s="127"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="109">
         <f t="shared" si="0"/>
         <v>-4694.9962266999401</v>
       </c>
-      <c r="K49" s="91">
+      <c r="K49" s="110">
         <f t="shared" si="1"/>
         <v>0.64102711639907584</v>
       </c>
-      <c r="L49" s="94">
+      <c r="L49" s="111">
         <f t="shared" si="2"/>
         <v>-3009.6198927060045</v>
       </c>
-      <c r="M49" s="92"/>
-      <c r="N49" s="110"/>
-      <c r="O49" s="110"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
       <c r="P49" s="55"/>
       <c r="Q49" s="65"/>
       <c r="R49" s="55"/>
@@ -10614,31 +10863,31 @@
       <c r="DM49" s="58"/>
       <c r="DN49" s="58"/>
     </row>
-    <row r="50" spans="1:118" ht="24" customHeight="1">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="99"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="113"/>
-      <c r="J50" s="90">
+    <row r="50" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="113"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="114"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="130"/>
+      <c r="J50" s="109">
         <f t="shared" si="0"/>
         <v>121896</v>
       </c>
-      <c r="K50" s="91">
+      <c r="K50" s="110">
         <f t="shared" si="1"/>
         <v>0.65380000000000005</v>
       </c>
-      <c r="L50" s="94">
+      <c r="L50" s="111">
         <f t="shared" si="2"/>
         <v>79695.604800000001</v>
       </c>
-      <c r="M50" s="92"/>
-      <c r="N50" s="110"/>
-      <c r="O50" s="110"/>
+      <c r="M50" s="113"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
       <c r="P50" s="55"/>
       <c r="Q50" s="65"/>
       <c r="R50" s="55"/>
@@ -10743,31 +10992,31 @@
       <c r="DM50" s="58"/>
       <c r="DN50" s="58"/>
     </row>
-    <row r="51" spans="1:118" ht="24" customHeight="1">
-      <c r="A51" s="92"/>
-      <c r="B51" s="92"/>
-      <c r="C51" s="94"/>
-      <c r="D51" s="94"/>
-      <c r="E51" s="92"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="99"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="92"/>
-      <c r="J51" s="90">
+    <row r="51" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="114"/>
+      <c r="H51" s="127"/>
+      <c r="I51" s="113"/>
+      <c r="J51" s="109">
         <f t="shared" si="0"/>
         <v>73073.256251293904</v>
       </c>
-      <c r="K51" s="91">
+      <c r="K51" s="110">
         <f t="shared" si="1"/>
         <v>0.64890549893004068</v>
       </c>
-      <c r="L51" s="94">
+      <c r="L51" s="111">
         <f t="shared" si="2"/>
         <v>47417.637806188584</v>
       </c>
-      <c r="M51" s="92"/>
-      <c r="N51" s="110"/>
-      <c r="O51" s="110"/>
+      <c r="M51" s="113"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
       <c r="P51" s="55"/>
       <c r="Q51" s="65"/>
       <c r="R51" s="55"/>
@@ -10872,31 +11121,31 @@
       <c r="DM51" s="58"/>
       <c r="DN51" s="58"/>
     </row>
-    <row r="52" spans="1:118" ht="24" customHeight="1">
-      <c r="A52" s="92"/>
-      <c r="B52" s="92"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="99"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="90">
+    <row r="52" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="56"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="121"/>
+      <c r="G52" s="114"/>
+      <c r="H52" s="112"/>
+      <c r="I52" s="113"/>
+      <c r="J52" s="109">
         <f t="shared" si="0"/>
         <v>152.41625129390741</v>
       </c>
-      <c r="K52" s="91">
+      <c r="K52" s="110">
         <f t="shared" si="1"/>
         <v>0.65067471721576897</v>
       </c>
-      <c r="L52" s="94">
+      <c r="L52" s="111">
         <f t="shared" si="2"/>
         <v>99.173401209750779</v>
       </c>
-      <c r="M52" s="92"/>
-      <c r="N52" s="110"/>
-      <c r="O52" s="110"/>
+      <c r="M52" s="113"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
       <c r="P52" s="55"/>
       <c r="Q52" s="65"/>
       <c r="R52" s="55"/>
@@ -11001,31 +11250,31 @@
       <c r="DM52" s="58"/>
       <c r="DN52" s="58"/>
     </row>
-    <row r="53" spans="1:118" ht="24" customHeight="1">
-      <c r="A53" s="92"/>
-      <c r="B53" s="92"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="99"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="90">
+    <row r="53" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="56"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="113"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="114"/>
+      <c r="H53" s="112"/>
+      <c r="I53" s="113"/>
+      <c r="J53" s="109">
         <f t="shared" si="0"/>
         <v>72920.84</v>
       </c>
-      <c r="K53" s="91">
+      <c r="K53" s="110">
         <f t="shared" si="1"/>
         <v>0.64890180098006056</v>
       </c>
-      <c r="L53" s="94">
+      <c r="L53" s="111">
         <f t="shared" si="2"/>
         <v>47318.46440497884</v>
       </c>
-      <c r="M53" s="94"/>
-      <c r="N53" s="110"/>
-      <c r="O53" s="110"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
       <c r="P53" s="55"/>
       <c r="Q53" s="65"/>
       <c r="R53" s="55"/>
@@ -11130,31 +11379,31 @@
       <c r="DM53" s="58"/>
       <c r="DN53" s="58"/>
     </row>
-    <row r="54" spans="1:118" ht="24" customHeight="1">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="99"/>
-      <c r="H54" s="95"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="90">
+    <row r="54" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="56"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="113"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="112"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K54" s="91">
+      <c r="K54" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L54" s="94">
+      <c r="L54" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M54" s="92"/>
-      <c r="N54" s="110"/>
-      <c r="O54" s="110"/>
+      <c r="M54" s="113"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
       <c r="P54" s="55"/>
       <c r="Q54" s="65"/>
       <c r="R54" s="55"/>
@@ -11259,31 +11508,31 @@
       <c r="DM54" s="58"/>
       <c r="DN54" s="58"/>
     </row>
-    <row r="55" spans="1:118" ht="24" customHeight="1">
-      <c r="A55" s="92"/>
-      <c r="B55" s="92"/>
-      <c r="C55" s="94"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="92"/>
-      <c r="J55" s="90">
+    <row r="55" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="56"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="113"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="113"/>
+      <c r="J55" s="109">
         <f t="shared" si="0"/>
         <v>72920.84</v>
       </c>
-      <c r="K55" s="91">
+      <c r="K55" s="110">
         <f t="shared" si="1"/>
         <v>0.64890180098006056</v>
       </c>
-      <c r="L55" s="94">
+      <c r="L55" s="111">
         <f t="shared" si="2"/>
         <v>47318.46440497884</v>
       </c>
-      <c r="M55" s="92"/>
-      <c r="N55" s="110"/>
-      <c r="O55" s="110"/>
+      <c r="M55" s="113"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
       <c r="P55" s="55"/>
       <c r="Q55" s="65"/>
       <c r="R55" s="55"/>
@@ -11388,31 +11637,31 @@
       <c r="DM55" s="58"/>
       <c r="DN55" s="58"/>
     </row>
-    <row r="56" spans="1:118" ht="24" customHeight="1">
-      <c r="A56" s="92"/>
-      <c r="B56" s="92"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="92"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="99"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="90">
+    <row r="56" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="56"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="113"/>
+      <c r="J56" s="109">
         <f t="shared" si="0"/>
         <v>73.999946397426484</v>
       </c>
-      <c r="K56" s="91">
+      <c r="K56" s="110">
         <f t="shared" si="1"/>
         <v>0.65067471721576897</v>
       </c>
-      <c r="L56" s="94">
+      <c r="L56" s="111">
         <f t="shared" si="2"/>
         <v>48.149894196127541</v>
       </c>
-      <c r="M56" s="92"/>
-      <c r="N56" s="110"/>
-      <c r="O56" s="110"/>
+      <c r="M56" s="113"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
       <c r="P56" s="55"/>
       <c r="Q56" s="65"/>
       <c r="R56" s="55"/>
@@ -11517,31 +11766,31 @@
       <c r="DM56" s="58"/>
       <c r="DN56" s="58"/>
     </row>
-    <row r="57" spans="1:118" ht="24" customHeight="1">
-      <c r="A57" s="92"/>
-      <c r="B57" s="92"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="99"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="90">
+    <row r="57" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="56"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="113"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="113"/>
+      <c r="J57" s="109">
         <f t="shared" si="0"/>
         <v>72846.840053602573</v>
       </c>
-      <c r="K57" s="91">
+      <c r="K57" s="110">
         <f t="shared" si="1"/>
         <v>0.64889999999999992</v>
       </c>
-      <c r="L57" s="94">
+      <c r="L57" s="111">
         <f t="shared" si="2"/>
         <v>47270.3145107827</v>
       </c>
-      <c r="M57" s="92"/>
-      <c r="N57" s="110"/>
-      <c r="O57" s="110"/>
+      <c r="M57" s="113"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
       <c r="P57" s="55"/>
       <c r="Q57" s="65"/>
       <c r="R57" s="55"/>
@@ -11646,31 +11895,31 @@
       <c r="DM57" s="58"/>
       <c r="DN57" s="58"/>
     </row>
-    <row r="58" spans="1:118" ht="24" customHeight="1">
-      <c r="A58" s="92"/>
-      <c r="B58" s="92"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="94"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="99"/>
-      <c r="H58" s="95"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="90">
+    <row r="58" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="56"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="121"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K58" s="91">
+      <c r="K58" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L58" s="94">
+      <c r="L58" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M58" s="92"/>
-      <c r="N58" s="110"/>
-      <c r="O58" s="110"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
       <c r="P58" s="55"/>
       <c r="Q58" s="65"/>
       <c r="R58" s="55"/>
@@ -11775,31 +12024,31 @@
       <c r="DM58" s="58"/>
       <c r="DN58" s="58"/>
     </row>
-    <row r="59" spans="1:118" ht="24" customHeight="1">
-      <c r="A59" s="92"/>
-      <c r="B59" s="92"/>
-      <c r="C59" s="94"/>
-      <c r="D59" s="94"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="90">
+    <row r="59" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="56"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="114"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="109">
         <f t="shared" si="0"/>
         <v>72846.840053602573</v>
       </c>
-      <c r="K59" s="91">
+      <c r="K59" s="110">
         <f t="shared" si="1"/>
         <v>0.64889999999999992</v>
       </c>
-      <c r="L59" s="94">
+      <c r="L59" s="111">
         <f t="shared" si="2"/>
         <v>47270.3145107827</v>
       </c>
-      <c r="M59" s="94"/>
-      <c r="N59" s="110"/>
-      <c r="O59" s="110"/>
+      <c r="M59" s="111"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
       <c r="P59" s="55"/>
       <c r="Q59" s="65"/>
       <c r="R59" s="55"/>
@@ -11904,31 +12153,31 @@
       <c r="DM59" s="58"/>
       <c r="DN59" s="58"/>
     </row>
-    <row r="60" spans="1:118" ht="24" customHeight="1">
-      <c r="A60" s="92"/>
-      <c r="B60" s="92"/>
-      <c r="C60" s="94"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="92"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="99"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="92"/>
-      <c r="J60" s="90">
+    <row r="60" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="113"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="113"/>
+      <c r="J60" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K60" s="91">
+      <c r="K60" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L60" s="94">
+      <c r="L60" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M60" s="92"/>
-      <c r="N60" s="110"/>
-      <c r="O60" s="110"/>
+      <c r="M60" s="113"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
       <c r="P60" s="55"/>
       <c r="Q60" s="65"/>
       <c r="R60" s="55"/>
@@ -12033,31 +12282,31 @@
       <c r="DM60" s="58"/>
       <c r="DN60" s="58"/>
     </row>
-    <row r="61" spans="1:118" ht="24" customHeight="1">
-      <c r="A61" s="92"/>
-      <c r="B61" s="92"/>
-      <c r="C61" s="94"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="92"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="99"/>
-      <c r="H61" s="109"/>
-      <c r="I61" s="92"/>
-      <c r="J61" s="90">
+    <row r="61" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="56"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="114"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="109">
         <f t="shared" si="0"/>
         <v>72846.840053602587</v>
       </c>
-      <c r="K61" s="91">
+      <c r="K61" s="110">
         <f t="shared" si="1"/>
         <v>0.64890000000000003</v>
       </c>
-      <c r="L61" s="94">
+      <c r="L61" s="111">
         <f t="shared" si="2"/>
         <v>47270.314510782722</v>
       </c>
-      <c r="M61" s="94"/>
-      <c r="N61" s="110"/>
-      <c r="O61" s="110"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
       <c r="P61" s="55"/>
       <c r="Q61" s="65"/>
       <c r="R61" s="55"/>
@@ -12162,31 +12411,31 @@
       <c r="DM61" s="58"/>
       <c r="DN61" s="58"/>
     </row>
-    <row r="62" spans="1:118" ht="24" customHeight="1">
-      <c r="A62" s="92"/>
-      <c r="B62" s="92"/>
-      <c r="C62" s="94"/>
-      <c r="D62" s="94"/>
-      <c r="E62" s="92"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="94"/>
-      <c r="J62" s="90">
+    <row r="62" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="56"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K62" s="91">
+      <c r="K62" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L62" s="94">
+      <c r="L62" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M62" s="94"/>
-      <c r="N62" s="110"/>
-      <c r="O62" s="110"/>
+      <c r="M62" s="111"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
       <c r="P62" s="55"/>
       <c r="Q62" s="65"/>
       <c r="R62" s="55"/>
@@ -12291,31 +12540,31 @@
       <c r="DM62" s="58"/>
       <c r="DN62" s="58"/>
     </row>
-    <row r="63" spans="1:118" ht="24" customHeight="1">
-      <c r="A63" s="92"/>
-      <c r="B63" s="92"/>
-      <c r="C63" s="94"/>
-      <c r="D63" s="94"/>
-      <c r="E63" s="92"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="99"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="92"/>
-      <c r="J63" s="90">
+    <row r="63" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="114"/>
+      <c r="H63" s="112"/>
+      <c r="I63" s="113"/>
+      <c r="J63" s="109">
         <f t="shared" si="0"/>
         <v>15475.332453602576</v>
       </c>
-      <c r="K63" s="91">
+      <c r="K63" s="110">
         <f t="shared" si="1"/>
         <v>0.63518302232404666</v>
       </c>
-      <c r="L63" s="94">
+      <c r="L63" s="111">
         <f t="shared" si="2"/>
         <v>9829.6684393486885</v>
       </c>
-      <c r="M63" s="94"/>
-      <c r="N63" s="110"/>
-      <c r="O63" s="110"/>
+      <c r="M63" s="111"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
       <c r="P63" s="55"/>
       <c r="Q63" s="65"/>
       <c r="R63" s="55"/>
@@ -12420,31 +12669,31 @@
       <c r="DM63" s="58"/>
       <c r="DN63" s="58"/>
     </row>
-    <row r="64" spans="1:118" ht="24" customHeight="1">
-      <c r="A64" s="92"/>
-      <c r="B64" s="92"/>
-      <c r="C64" s="94"/>
-      <c r="D64" s="94"/>
-      <c r="E64" s="92"/>
-      <c r="F64" s="111"/>
-      <c r="G64" s="99"/>
-      <c r="H64" s="112"/>
-      <c r="I64" s="113"/>
-      <c r="J64" s="90">
+    <row r="64" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="56"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="113"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="114"/>
+      <c r="H64" s="129"/>
+      <c r="I64" s="130"/>
+      <c r="J64" s="109">
         <f t="shared" si="0"/>
         <v>57371.507599999997</v>
       </c>
-      <c r="K64" s="91">
+      <c r="K64" s="110">
         <f t="shared" si="1"/>
         <v>0.65259999999999996</v>
       </c>
-      <c r="L64" s="94">
+      <c r="L64" s="111">
         <f t="shared" si="2"/>
         <v>37440.645859759992</v>
       </c>
-      <c r="M64" s="92"/>
-      <c r="N64" s="110"/>
-      <c r="O64" s="110"/>
+      <c r="M64" s="113"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
       <c r="P64" s="55"/>
       <c r="Q64" s="65"/>
       <c r="R64" s="55"/>
@@ -12549,31 +12798,31 @@
       <c r="DM64" s="58"/>
       <c r="DN64" s="58"/>
     </row>
-    <row r="65" spans="1:118" ht="24" customHeight="1">
-      <c r="A65" s="92"/>
-      <c r="B65" s="92"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="92"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="99"/>
-      <c r="H65" s="95"/>
-      <c r="I65" s="92"/>
-      <c r="J65" s="90">
+    <row r="65" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K65" s="91">
+      <c r="K65" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L65" s="94">
+      <c r="L65" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M65" s="92"/>
-      <c r="N65" s="110"/>
-      <c r="O65" s="110"/>
+      <c r="M65" s="113"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="64"/>
       <c r="P65" s="55"/>
       <c r="Q65" s="65"/>
       <c r="R65" s="55"/>
@@ -12678,31 +12927,31 @@
       <c r="DM65" s="58"/>
       <c r="DN65" s="58"/>
     </row>
-    <row r="66" spans="1:118" ht="24" customHeight="1">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="94"/>
-      <c r="D66" s="94"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="99"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="94"/>
-      <c r="J66" s="90">
+    <row r="66" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="113"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="114"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K66" s="91">
+      <c r="K66" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L66" s="94">
+      <c r="L66" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M66" s="92"/>
-      <c r="N66" s="110"/>
-      <c r="O66" s="110"/>
+      <c r="M66" s="113"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
       <c r="P66" s="55"/>
       <c r="Q66" s="65"/>
       <c r="R66" s="55"/>
@@ -12807,31 +13056,31 @@
       <c r="DM66" s="58"/>
       <c r="DN66" s="58"/>
     </row>
-    <row r="67" spans="1:118" ht="24" customHeight="1">
-      <c r="A67" s="92"/>
-      <c r="B67" s="94"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="94"/>
-      <c r="E67" s="92"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="99"/>
-      <c r="H67" s="95"/>
-      <c r="I67" s="92"/>
-      <c r="J67" s="90">
+    <row r="67" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="56"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="113"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="113"/>
+      <c r="J67" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K67" s="91">
+      <c r="K67" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L67" s="94">
+      <c r="L67" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M67" s="92"/>
-      <c r="N67" s="110"/>
-      <c r="O67" s="110"/>
+      <c r="M67" s="113"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
       <c r="P67" s="55"/>
       <c r="Q67" s="65"/>
       <c r="R67" s="55"/>
@@ -12936,31 +13185,31 @@
       <c r="DM67" s="58"/>
       <c r="DN67" s="58"/>
     </row>
-    <row r="68" spans="1:118" ht="24" customHeight="1">
-      <c r="A68" s="92"/>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
-      <c r="D68" s="92"/>
-      <c r="E68" s="92"/>
-      <c r="F68" s="97"/>
-      <c r="G68" s="99"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="92"/>
-      <c r="J68" s="90">
+    <row r="68" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="56"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="56"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="113"/>
+      <c r="F68" s="121"/>
+      <c r="G68" s="114"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="113"/>
+      <c r="J68" s="109">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K68" s="91">
+      <c r="K68" s="110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L68" s="94">
+      <c r="L68" s="111">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M68" s="92"/>
-      <c r="N68" s="110"/>
-      <c r="O68" s="110"/>
+      <c r="M68" s="113"/>
+      <c r="N68" s="64"/>
+      <c r="O68" s="64"/>
       <c r="P68" s="55"/>
       <c r="Q68" s="65"/>
       <c r="R68" s="55"/>
@@ -13065,31 +13314,31 @@
       <c r="DM68" s="58"/>
       <c r="DN68" s="58"/>
     </row>
-    <row r="69" spans="1:118" ht="24" customHeight="1">
-      <c r="A69" s="92"/>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="92"/>
-      <c r="E69" s="92"/>
-      <c r="F69" s="114"/>
-      <c r="G69" s="99"/>
-      <c r="H69" s="95"/>
-      <c r="I69" s="92"/>
-      <c r="J69" s="90">
+    <row r="69" spans="1:118" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="56"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="56"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="113"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="112"/>
+      <c r="I69" s="113"/>
+      <c r="J69" s="109">
         <f t="shared" si="0"/>
         <v>179267.50760000001</v>
       </c>
-      <c r="K69" s="91">
+      <c r="K69" s="110">
         <f t="shared" si="1"/>
         <v>0.65341596047135531</v>
       </c>
-      <c r="L69" s="94">
+      <c r="L69" s="111">
         <f t="shared" si="2"/>
         <v>117136.25065976</v>
       </c>
-      <c r="M69" s="92"/>
-      <c r="N69" s="110"/>
-      <c r="O69" s="110"/>
+      <c r="M69" s="113"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
       <c r="P69" s="55"/>
       <c r="Q69" s="65"/>
       <c r="R69" s="55"/>
@@ -13194,22 +13443,22 @@
       <c r="DM69" s="58"/>
       <c r="DN69" s="58"/>
     </row>
-    <row r="70" spans="1:118">
-      <c r="A70" s="92"/>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="93"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
-      <c r="K70" s="92"/>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
-      <c r="N70" s="92"/>
-      <c r="O70" s="92"/>
+    <row r="70" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A70" s="56"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="119"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="113"/>
+      <c r="M70" s="113"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="56"/>
       <c r="P70" s="56"/>
       <c r="Q70" s="56"/>
       <c r="R70" s="56"/>
@@ -13314,20 +13563,20 @@
       <c r="DM70" s="58"/>
       <c r="DN70" s="58"/>
     </row>
-    <row r="71" spans="1:118">
+    <row r="71" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A71" s="56"/>
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
-      <c r="E71" s="56"/>
-      <c r="F71" s="57"/>
-      <c r="G71" s="56"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="56"/>
-      <c r="J71" s="56"/>
-      <c r="K71" s="56"/>
-      <c r="L71" s="56"/>
-      <c r="M71" s="56"/>
+      <c r="E71" s="113"/>
+      <c r="F71" s="119"/>
+      <c r="G71" s="113"/>
+      <c r="H71" s="113"/>
+      <c r="I71" s="113"/>
+      <c r="J71" s="113"/>
+      <c r="K71" s="113"/>
+      <c r="L71" s="113"/>
+      <c r="M71" s="113"/>
       <c r="N71" s="56"/>
       <c r="O71" s="56"/>
       <c r="P71" s="56"/>
@@ -13434,20 +13683,20 @@
       <c r="DM71" s="58"/>
       <c r="DN71" s="58"/>
     </row>
-    <row r="72" spans="1:118">
+    <row r="72" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A72" s="56"/>
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
       <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="56"/>
-      <c r="M72" s="56"/>
+      <c r="E72" s="113"/>
+      <c r="F72" s="119"/>
+      <c r="G72" s="132"/>
+      <c r="H72" s="132"/>
+      <c r="I72" s="113"/>
+      <c r="J72" s="132"/>
+      <c r="K72" s="132"/>
+      <c r="L72" s="113"/>
+      <c r="M72" s="113"/>
       <c r="N72" s="56"/>
       <c r="O72" s="56"/>
       <c r="P72" s="56"/>
@@ -13554,20 +13803,20 @@
       <c r="DM72" s="58"/>
       <c r="DN72" s="58"/>
     </row>
-    <row r="73" spans="1:118">
+    <row r="73" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A73" s="56"/>
       <c r="B73" s="56"/>
       <c r="C73" s="56"/>
       <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="57"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="56"/>
-      <c r="M73" s="56"/>
+      <c r="E73" s="113"/>
+      <c r="F73" s="119"/>
+      <c r="G73" s="133"/>
+      <c r="H73" s="133"/>
+      <c r="I73" s="113"/>
+      <c r="J73" s="133"/>
+      <c r="K73" s="133"/>
+      <c r="L73" s="113"/>
+      <c r="M73" s="113"/>
       <c r="N73" s="56"/>
       <c r="O73" s="56"/>
       <c r="P73" s="56"/>
@@ -13674,20 +13923,20 @@
       <c r="DM73" s="58"/>
       <c r="DN73" s="58"/>
     </row>
-    <row r="74" spans="1:118" ht="19">
+    <row r="74" spans="1:118" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="56"/>
       <c r="B74" s="56"/>
       <c r="C74" s="56"/>
       <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="56"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="56"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="55"/>
-      <c r="L74" s="56"/>
-      <c r="M74" s="56"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="113"/>
+      <c r="H74" s="113"/>
+      <c r="I74" s="113"/>
+      <c r="J74" s="111"/>
+      <c r="K74" s="112"/>
+      <c r="L74" s="113"/>
+      <c r="M74" s="113"/>
       <c r="N74" s="56"/>
       <c r="O74" s="56"/>
       <c r="P74" s="56"/>
@@ -13794,20 +14043,20 @@
       <c r="DM74" s="58"/>
       <c r="DN74" s="58"/>
     </row>
-    <row r="75" spans="1:118">
+    <row r="75" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A75" s="56"/>
       <c r="B75" s="56"/>
       <c r="C75" s="56"/>
       <c r="D75" s="56"/>
-      <c r="E75" s="56"/>
-      <c r="F75" s="46"/>
-      <c r="G75" s="56"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="56"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="55"/>
-      <c r="L75" s="56"/>
-      <c r="M75" s="56"/>
+      <c r="E75" s="113"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="113"/>
+      <c r="H75" s="113"/>
+      <c r="I75" s="113"/>
+      <c r="J75" s="111"/>
+      <c r="K75" s="112"/>
+      <c r="L75" s="113"/>
+      <c r="M75" s="113"/>
       <c r="N75" s="56"/>
       <c r="O75" s="56"/>
       <c r="P75" s="56"/>
@@ -13914,20 +14163,20 @@
       <c r="DM75" s="58"/>
       <c r="DN75" s="58"/>
     </row>
-    <row r="76" spans="1:118">
+    <row r="76" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A76" s="56"/>
       <c r="B76" s="56"/>
       <c r="C76" s="56"/>
       <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="61"/>
-      <c r="K76" s="55"/>
-      <c r="L76" s="56"/>
-      <c r="M76" s="56"/>
+      <c r="E76" s="113"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="113"/>
+      <c r="H76" s="113"/>
+      <c r="I76" s="113"/>
+      <c r="J76" s="111"/>
+      <c r="K76" s="112"/>
+      <c r="L76" s="113"/>
+      <c r="M76" s="113"/>
       <c r="N76" s="56"/>
       <c r="O76" s="56"/>
       <c r="P76" s="56"/>
@@ -14034,20 +14283,20 @@
       <c r="DM76" s="58"/>
       <c r="DN76" s="58"/>
     </row>
-    <row r="77" spans="1:118">
+    <row r="77" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A77" s="56"/>
       <c r="B77" s="56"/>
       <c r="C77" s="56"/>
       <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="46"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="61"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="56"/>
-      <c r="M77" s="56"/>
+      <c r="E77" s="113"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="113"/>
+      <c r="H77" s="113"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="112"/>
+      <c r="L77" s="113"/>
+      <c r="M77" s="113"/>
       <c r="N77" s="56"/>
       <c r="O77" s="56"/>
       <c r="P77" s="56"/>
@@ -14154,20 +14403,20 @@
       <c r="DM77" s="58"/>
       <c r="DN77" s="58"/>
     </row>
-    <row r="78" spans="1:118">
+    <row r="78" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A78" s="56"/>
       <c r="B78" s="56"/>
       <c r="C78" s="56"/>
       <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="46"/>
-      <c r="G78" s="56"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="56"/>
-      <c r="J78" s="61"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="56"/>
-      <c r="M78" s="56"/>
+      <c r="E78" s="113"/>
+      <c r="F78" s="121"/>
+      <c r="G78" s="113"/>
+      <c r="H78" s="113"/>
+      <c r="I78" s="113"/>
+      <c r="J78" s="111"/>
+      <c r="K78" s="112"/>
+      <c r="L78" s="113"/>
+      <c r="M78" s="113"/>
       <c r="N78" s="56"/>
       <c r="O78" s="56"/>
       <c r="P78" s="56"/>
@@ -14274,20 +14523,20 @@
       <c r="DM78" s="58"/>
       <c r="DN78" s="58"/>
     </row>
-    <row r="79" spans="1:118">
+    <row r="79" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A79" s="56"/>
       <c r="B79" s="56"/>
       <c r="C79" s="56"/>
       <c r="D79" s="56"/>
-      <c r="E79" s="56"/>
-      <c r="F79" s="46"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="56"/>
-      <c r="J79" s="61"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="56"/>
-      <c r="M79" s="56"/>
+      <c r="E79" s="113"/>
+      <c r="F79" s="121"/>
+      <c r="G79" s="113"/>
+      <c r="H79" s="113"/>
+      <c r="I79" s="113"/>
+      <c r="J79" s="111"/>
+      <c r="K79" s="112"/>
+      <c r="L79" s="113"/>
+      <c r="M79" s="113"/>
       <c r="N79" s="56"/>
       <c r="O79" s="56"/>
       <c r="P79" s="56"/>
@@ -14394,20 +14643,20 @@
       <c r="DM79" s="58"/>
       <c r="DN79" s="58"/>
     </row>
-    <row r="80" spans="1:118">
+    <row r="80" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A80" s="56"/>
       <c r="B80" s="56"/>
       <c r="C80" s="56"/>
       <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="61"/>
-      <c r="K80" s="55"/>
-      <c r="L80" s="56"/>
-      <c r="M80" s="56"/>
+      <c r="E80" s="113"/>
+      <c r="F80" s="121"/>
+      <c r="G80" s="113"/>
+      <c r="H80" s="113"/>
+      <c r="I80" s="113"/>
+      <c r="J80" s="111"/>
+      <c r="K80" s="112"/>
+      <c r="L80" s="113"/>
+      <c r="M80" s="113"/>
       <c r="N80" s="56"/>
       <c r="O80" s="56"/>
       <c r="P80" s="56"/>
@@ -14514,20 +14763,20 @@
       <c r="DM80" s="58"/>
       <c r="DN80" s="58"/>
     </row>
-    <row r="81" spans="1:118">
+    <row r="81" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A81" s="56"/>
       <c r="B81" s="56"/>
       <c r="C81" s="56"/>
       <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="46"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="61"/>
-      <c r="K81" s="55"/>
-      <c r="L81" s="56"/>
-      <c r="M81" s="56"/>
+      <c r="E81" s="113"/>
+      <c r="F81" s="121"/>
+      <c r="G81" s="113"/>
+      <c r="H81" s="113"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="111"/>
+      <c r="K81" s="112"/>
+      <c r="L81" s="113"/>
+      <c r="M81" s="113"/>
       <c r="N81" s="56"/>
       <c r="O81" s="56"/>
       <c r="P81" s="56"/>
@@ -14634,20 +14883,20 @@
       <c r="DM81" s="58"/>
       <c r="DN81" s="58"/>
     </row>
-    <row r="82" spans="1:118">
+    <row r="82" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A82" s="56"/>
       <c r="B82" s="56"/>
       <c r="C82" s="56"/>
       <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="46"/>
-      <c r="G82" s="56"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="56"/>
-      <c r="J82" s="61"/>
-      <c r="K82" s="55"/>
-      <c r="L82" s="56"/>
-      <c r="M82" s="56"/>
+      <c r="E82" s="113"/>
+      <c r="F82" s="121"/>
+      <c r="G82" s="113"/>
+      <c r="H82" s="113"/>
+      <c r="I82" s="113"/>
+      <c r="J82" s="111"/>
+      <c r="K82" s="112"/>
+      <c r="L82" s="113"/>
+      <c r="M82" s="113"/>
       <c r="N82" s="56"/>
       <c r="O82" s="56"/>
       <c r="P82" s="56"/>
@@ -14754,7 +15003,7 @@
       <c r="DM82" s="58"/>
       <c r="DN82" s="58"/>
     </row>
-    <row r="83" spans="1:118">
+    <row r="83" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A83" s="56"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
@@ -14874,7 +15123,7 @@
       <c r="DM83" s="58"/>
       <c r="DN83" s="58"/>
     </row>
-    <row r="84" spans="1:118">
+    <row r="84" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A84" s="56"/>
       <c r="B84" s="56"/>
       <c r="C84" s="56"/>
@@ -14994,7 +15243,7 @@
       <c r="DM84" s="58"/>
       <c r="DN84" s="58"/>
     </row>
-    <row r="85" spans="1:118">
+    <row r="85" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A85" s="56"/>
       <c r="B85" s="56"/>
       <c r="C85" s="56"/>
@@ -15114,7 +15363,7 @@
       <c r="DM85" s="58"/>
       <c r="DN85" s="58"/>
     </row>
-    <row r="86" spans="1:118" ht="16">
+    <row r="86" spans="1:118" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="56"/>
       <c r="B86" s="56"/>
       <c r="C86" s="56"/>
@@ -15234,7 +15483,7 @@
       <c r="DM86" s="58"/>
       <c r="DN86" s="58"/>
     </row>
-    <row r="87" spans="1:118" ht="16">
+    <row r="87" spans="1:118" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="56"/>
       <c r="B87" s="56"/>
       <c r="C87" s="56"/>
@@ -15354,7 +15603,7 @@
       <c r="DM87" s="58"/>
       <c r="DN87" s="58"/>
     </row>
-    <row r="88" spans="1:118">
+    <row r="88" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A88" s="56"/>
       <c r="B88" s="56"/>
       <c r="C88" s="56"/>
@@ -15474,7 +15723,7 @@
       <c r="DM88" s="58"/>
       <c r="DN88" s="58"/>
     </row>
-    <row r="89" spans="1:118">
+    <row r="89" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A89" s="56"/>
       <c r="B89" s="56"/>
       <c r="C89" s="56"/>
@@ -15594,7 +15843,7 @@
       <c r="DM89" s="58"/>
       <c r="DN89" s="58"/>
     </row>
-    <row r="90" spans="1:118">
+    <row r="90" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A90" s="56"/>
       <c r="B90" s="56"/>
       <c r="C90" s="56"/>
@@ -15714,7 +15963,7 @@
       <c r="DM90" s="58"/>
       <c r="DN90" s="58"/>
     </row>
-    <row r="91" spans="1:118">
+    <row r="91" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A91" s="56"/>
       <c r="B91" s="56"/>
       <c r="C91" s="56"/>
@@ -15834,7 +16083,7 @@
       <c r="DM91" s="58"/>
       <c r="DN91" s="58"/>
     </row>
-    <row r="92" spans="1:118">
+    <row r="92" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A92" s="56"/>
       <c r="B92" s="56"/>
       <c r="C92" s="56"/>
@@ -15954,7 +16203,7 @@
       <c r="DM92" s="58"/>
       <c r="DN92" s="58"/>
     </row>
-    <row r="93" spans="1:118">
+    <row r="93" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A93" s="56"/>
       <c r="B93" s="56"/>
       <c r="C93" s="56"/>
@@ -16074,7 +16323,7 @@
       <c r="DM93" s="58"/>
       <c r="DN93" s="58"/>
     </row>
-    <row r="94" spans="1:118">
+    <row r="94" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A94" s="56"/>
       <c r="B94" s="56"/>
       <c r="C94" s="56"/>
@@ -16194,7 +16443,7 @@
       <c r="DM94" s="58"/>
       <c r="DN94" s="58"/>
     </row>
-    <row r="95" spans="1:118">
+    <row r="95" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A95" s="56"/>
       <c r="B95" s="56"/>
       <c r="C95" s="56"/>
@@ -16314,7 +16563,7 @@
       <c r="DM95" s="58"/>
       <c r="DN95" s="58"/>
     </row>
-    <row r="96" spans="1:118">
+    <row r="96" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A96" s="56"/>
       <c r="B96" s="56"/>
       <c r="C96" s="56"/>
@@ -16434,7 +16683,7 @@
       <c r="DM96" s="58"/>
       <c r="DN96" s="58"/>
     </row>
-    <row r="97" spans="1:118">
+    <row r="97" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A97" s="56"/>
       <c r="B97" s="56"/>
       <c r="C97" s="56"/>
@@ -16554,7 +16803,7 @@
       <c r="DM97" s="58"/>
       <c r="DN97" s="58"/>
     </row>
-    <row r="98" spans="1:118">
+    <row r="98" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A98" s="56"/>
       <c r="B98" s="56"/>
       <c r="C98" s="56"/>
@@ -16674,7 +16923,7 @@
       <c r="DM98" s="58"/>
       <c r="DN98" s="58"/>
     </row>
-    <row r="99" spans="1:118">
+    <row r="99" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A99" s="56"/>
       <c r="B99" s="56"/>
       <c r="C99" s="56"/>
@@ -16794,7 +17043,7 @@
       <c r="DM99" s="58"/>
       <c r="DN99" s="58"/>
     </row>
-    <row r="100" spans="1:118" ht="16">
+    <row r="100" spans="1:118" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="56"/>
       <c r="B100" s="56"/>
       <c r="C100" s="56"/>
@@ -16914,7 +17163,7 @@
       <c r="DM100" s="58"/>
       <c r="DN100" s="58"/>
     </row>
-    <row r="101" spans="1:118">
+    <row r="101" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A101" s="56"/>
       <c r="B101" s="56"/>
       <c r="C101" s="56"/>
@@ -17034,7 +17283,7 @@
       <c r="DM101" s="58"/>
       <c r="DN101" s="58"/>
     </row>
-    <row r="102" spans="1:118">
+    <row r="102" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A102" s="56"/>
       <c r="B102" s="56"/>
       <c r="C102" s="56"/>
@@ -17154,7 +17403,7 @@
       <c r="DM102" s="58"/>
       <c r="DN102" s="58"/>
     </row>
-    <row r="103" spans="1:118">
+    <row r="103" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A103" s="56"/>
       <c r="B103" s="56"/>
       <c r="C103" s="56"/>
@@ -17274,7 +17523,7 @@
       <c r="DM103" s="58"/>
       <c r="DN103" s="58"/>
     </row>
-    <row r="104" spans="1:118">
+    <row r="104" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A104" s="56"/>
       <c r="B104" s="56"/>
       <c r="C104" s="56"/>
@@ -17394,7 +17643,7 @@
       <c r="DM104" s="58"/>
       <c r="DN104" s="58"/>
     </row>
-    <row r="105" spans="1:118" ht="16">
+    <row r="105" spans="1:118" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="56"/>
       <c r="B105" s="56"/>
       <c r="C105" s="56"/>
@@ -17514,7 +17763,7 @@
       <c r="DM105" s="58"/>
       <c r="DN105" s="58"/>
     </row>
-    <row r="106" spans="1:118">
+    <row r="106" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A106" s="56"/>
       <c r="B106" s="56"/>
       <c r="C106" s="56"/>
@@ -17634,15 +17883,15 @@
       <c r="DM106" s="58"/>
       <c r="DN106" s="58"/>
     </row>
-    <row r="107" spans="1:118">
+    <row r="107" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A107" s="56"/>
       <c r="B107" s="56"/>
       <c r="C107" s="56"/>
       <c r="D107" s="56"/>
       <c r="E107" s="56"/>
       <c r="F107" s="57"/>
-      <c r="G107" s="68"/>
-      <c r="H107" s="68"/>
+      <c r="G107" s="74"/>
+      <c r="H107" s="74"/>
       <c r="I107" s="56"/>
       <c r="J107" s="56"/>
       <c r="K107" s="56"/>
@@ -17754,7 +18003,7 @@
       <c r="DM107" s="58"/>
       <c r="DN107" s="58"/>
     </row>
-    <row r="108" spans="1:118">
+    <row r="108" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A108" s="56"/>
       <c r="B108" s="56"/>
       <c r="C108" s="56"/>
@@ -17874,7 +18123,7 @@
       <c r="DM108" s="58"/>
       <c r="DN108" s="58"/>
     </row>
-    <row r="109" spans="1:118">
+    <row r="109" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A109" s="56"/>
       <c r="B109" s="56"/>
       <c r="C109" s="56"/>
@@ -17994,7 +18243,7 @@
       <c r="DM109" s="58"/>
       <c r="DN109" s="58"/>
     </row>
-    <row r="110" spans="1:118">
+    <row r="110" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A110" s="56"/>
       <c r="B110" s="56"/>
       <c r="C110" s="56"/>
@@ -18114,7 +18363,7 @@
       <c r="DM110" s="58"/>
       <c r="DN110" s="58"/>
     </row>
-    <row r="111" spans="1:118">
+    <row r="111" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A111" s="56"/>
       <c r="B111" s="56"/>
       <c r="C111" s="56"/>
@@ -18234,7 +18483,7 @@
       <c r="DM111" s="58"/>
       <c r="DN111" s="58"/>
     </row>
-    <row r="112" spans="1:118">
+    <row r="112" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A112" s="56"/>
       <c r="B112" s="56"/>
       <c r="C112" s="56"/>
@@ -18354,7 +18603,7 @@
       <c r="DM112" s="58"/>
       <c r="DN112" s="58"/>
     </row>
-    <row r="113" spans="1:118">
+    <row r="113" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A113" s="56"/>
       <c r="B113" s="56"/>
       <c r="C113" s="56"/>
@@ -18474,7 +18723,7 @@
       <c r="DM113" s="58"/>
       <c r="DN113" s="58"/>
     </row>
-    <row r="114" spans="1:118">
+    <row r="114" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A114" s="56"/>
       <c r="B114" s="56"/>
       <c r="C114" s="56"/>
@@ -18594,7 +18843,7 @@
       <c r="DM114" s="58"/>
       <c r="DN114" s="58"/>
     </row>
-    <row r="115" spans="1:118">
+    <row r="115" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A115" s="56"/>
       <c r="B115" s="56"/>
       <c r="C115" s="56"/>
@@ -18714,7 +18963,7 @@
       <c r="DM115" s="58"/>
       <c r="DN115" s="58"/>
     </row>
-    <row r="116" spans="1:118">
+    <row r="116" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A116" s="56"/>
       <c r="B116" s="56"/>
       <c r="C116" s="56"/>
@@ -18834,7 +19083,7 @@
       <c r="DM116" s="58"/>
       <c r="DN116" s="58"/>
     </row>
-    <row r="117" spans="1:118">
+    <row r="117" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A117" s="56"/>
       <c r="B117" s="56"/>
       <c r="C117" s="56"/>
@@ -18954,7 +19203,7 @@
       <c r="DM117" s="58"/>
       <c r="DN117" s="58"/>
     </row>
-    <row r="118" spans="1:118">
+    <row r="118" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A118" s="56"/>
       <c r="B118" s="56"/>
       <c r="C118" s="56"/>
@@ -19074,7 +19323,7 @@
       <c r="DM118" s="58"/>
       <c r="DN118" s="58"/>
     </row>
-    <row r="119" spans="1:118">
+    <row r="119" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A119" s="56"/>
       <c r="B119" s="56"/>
       <c r="C119" s="56"/>
@@ -19194,7 +19443,7 @@
       <c r="DM119" s="58"/>
       <c r="DN119" s="58"/>
     </row>
-    <row r="120" spans="1:118">
+    <row r="120" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A120" s="56"/>
       <c r="B120" s="56"/>
       <c r="C120" s="56"/>
@@ -19314,7 +19563,7 @@
       <c r="DM120" s="58"/>
       <c r="DN120" s="58"/>
     </row>
-    <row r="121" spans="1:118">
+    <row r="121" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A121" s="56"/>
       <c r="B121" s="56"/>
       <c r="C121" s="56"/>
@@ -19434,7 +19683,7 @@
       <c r="DM121" s="58"/>
       <c r="DN121" s="58"/>
     </row>
-    <row r="122" spans="1:118">
+    <row r="122" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A122" s="56"/>
       <c r="B122" s="56"/>
       <c r="C122" s="56"/>
@@ -19554,7 +19803,7 @@
       <c r="DM122" s="58"/>
       <c r="DN122" s="58"/>
     </row>
-    <row r="123" spans="1:118">
+    <row r="123" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A123" s="56"/>
       <c r="B123" s="56"/>
       <c r="C123" s="56"/>
@@ -19674,7 +19923,7 @@
       <c r="DM123" s="58"/>
       <c r="DN123" s="58"/>
     </row>
-    <row r="124" spans="1:118">
+    <row r="124" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A124" s="56"/>
       <c r="B124" s="56"/>
       <c r="C124" s="56"/>
@@ -19794,7 +20043,7 @@
       <c r="DM124" s="58"/>
       <c r="DN124" s="58"/>
     </row>
-    <row r="125" spans="1:118">
+    <row r="125" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A125" s="56"/>
       <c r="B125" s="56"/>
       <c r="C125" s="56"/>
@@ -19914,7 +20163,7 @@
       <c r="DM125" s="58"/>
       <c r="DN125" s="58"/>
     </row>
-    <row r="126" spans="1:118">
+    <row r="126" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A126" s="56"/>
       <c r="B126" s="56"/>
       <c r="C126" s="56"/>
@@ -20034,7 +20283,7 @@
       <c r="DM126" s="58"/>
       <c r="DN126" s="58"/>
     </row>
-    <row r="127" spans="1:118">
+    <row r="127" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A127" s="56"/>
       <c r="B127" s="56"/>
       <c r="C127" s="56"/>
@@ -20154,7 +20403,7 @@
       <c r="DM127" s="58"/>
       <c r="DN127" s="58"/>
     </row>
-    <row r="128" spans="1:118">
+    <row r="128" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A128" s="56"/>
       <c r="B128" s="56"/>
       <c r="C128" s="56"/>
@@ -20274,7 +20523,7 @@
       <c r="DM128" s="58"/>
       <c r="DN128" s="58"/>
     </row>
-    <row r="129" spans="1:118">
+    <row r="129" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A129" s="56"/>
       <c r="B129" s="56"/>
       <c r="C129" s="56"/>
@@ -20394,7 +20643,7 @@
       <c r="DM129" s="58"/>
       <c r="DN129" s="58"/>
     </row>
-    <row r="130" spans="1:118">
+    <row r="130" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A130" s="56"/>
       <c r="B130" s="56"/>
       <c r="C130" s="56"/>
@@ -20514,7 +20763,7 @@
       <c r="DM130" s="58"/>
       <c r="DN130" s="58"/>
     </row>
-    <row r="131" spans="1:118">
+    <row r="131" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A131" s="56"/>
       <c r="B131" s="56"/>
       <c r="C131" s="56"/>
@@ -20634,7 +20883,7 @@
       <c r="DM131" s="58"/>
       <c r="DN131" s="58"/>
     </row>
-    <row r="132" spans="1:118">
+    <row r="132" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A132" s="56"/>
       <c r="B132" s="56"/>
       <c r="C132" s="56"/>
@@ -20754,7 +21003,7 @@
       <c r="DM132" s="58"/>
       <c r="DN132" s="58"/>
     </row>
-    <row r="133" spans="1:118">
+    <row r="133" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A133" s="56"/>
       <c r="B133" s="56"/>
       <c r="C133" s="56"/>
@@ -20874,7 +21123,7 @@
       <c r="DM133" s="58"/>
       <c r="DN133" s="58"/>
     </row>
-    <row r="134" spans="1:118">
+    <row r="134" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A134" s="56"/>
       <c r="B134" s="56"/>
       <c r="C134" s="56"/>
@@ -20994,7 +21243,7 @@
       <c r="DM134" s="58"/>
       <c r="DN134" s="58"/>
     </row>
-    <row r="135" spans="1:118">
+    <row r="135" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A135" s="56"/>
       <c r="B135" s="56"/>
       <c r="C135" s="56"/>
@@ -21114,7 +21363,7 @@
       <c r="DM135" s="58"/>
       <c r="DN135" s="58"/>
     </row>
-    <row r="136" spans="1:118">
+    <row r="136" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A136" s="56"/>
       <c r="B136" s="56"/>
       <c r="C136" s="56"/>
@@ -21234,7 +21483,7 @@
       <c r="DM136" s="58"/>
       <c r="DN136" s="58"/>
     </row>
-    <row r="137" spans="1:118">
+    <row r="137" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A137" s="56"/>
       <c r="B137" s="56"/>
       <c r="C137" s="56"/>
@@ -21354,7 +21603,7 @@
       <c r="DM137" s="58"/>
       <c r="DN137" s="58"/>
     </row>
-    <row r="138" spans="1:118">
+    <row r="138" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A138" s="56"/>
       <c r="B138" s="56"/>
       <c r="C138" s="56"/>
@@ -21474,7 +21723,7 @@
       <c r="DM138" s="58"/>
       <c r="DN138" s="58"/>
     </row>
-    <row r="139" spans="1:118">
+    <row r="139" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A139" s="56"/>
       <c r="B139" s="56"/>
       <c r="C139" s="56"/>
@@ -21594,7 +21843,7 @@
       <c r="DM139" s="58"/>
       <c r="DN139" s="58"/>
     </row>
-    <row r="140" spans="1:118">
+    <row r="140" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A140" s="56"/>
       <c r="B140" s="56"/>
       <c r="C140" s="56"/>
@@ -21714,7 +21963,7 @@
       <c r="DM140" s="58"/>
       <c r="DN140" s="58"/>
     </row>
-    <row r="141" spans="1:118" ht="19">
+    <row r="141" spans="1:118" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="56"/>
       <c r="B141" s="56"/>
       <c r="C141" s="56"/>
@@ -21834,7 +22083,7 @@
       <c r="DM141" s="58"/>
       <c r="DN141" s="58"/>
     </row>
-    <row r="142" spans="1:118">
+    <row r="142" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A142" s="56"/>
       <c r="B142" s="56"/>
       <c r="C142" s="56"/>
@@ -21954,7 +22203,7 @@
       <c r="DM142" s="58"/>
       <c r="DN142" s="58"/>
     </row>
-    <row r="143" spans="1:118">
+    <row r="143" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A143" s="56"/>
       <c r="B143" s="56"/>
       <c r="C143" s="56"/>
@@ -22074,7 +22323,7 @@
       <c r="DM143" s="58"/>
       <c r="DN143" s="58"/>
     </row>
-    <row r="144" spans="1:118">
+    <row r="144" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A144" s="56"/>
       <c r="B144" s="56"/>
       <c r="C144" s="56"/>
@@ -22194,7 +22443,7 @@
       <c r="DM144" s="58"/>
       <c r="DN144" s="58"/>
     </row>
-    <row r="145" spans="1:118">
+    <row r="145" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A145" s="56"/>
       <c r="B145" s="56"/>
       <c r="C145" s="56"/>
@@ -22314,7 +22563,7 @@
       <c r="DM145" s="58"/>
       <c r="DN145" s="58"/>
     </row>
-    <row r="146" spans="1:118">
+    <row r="146" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A146" s="56"/>
       <c r="B146" s="56"/>
       <c r="C146" s="56"/>
@@ -22434,7 +22683,7 @@
       <c r="DM146" s="58"/>
       <c r="DN146" s="58"/>
     </row>
-    <row r="147" spans="1:118">
+    <row r="147" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A147" s="56"/>
       <c r="B147" s="56"/>
       <c r="C147" s="56"/>
@@ -22554,7 +22803,7 @@
       <c r="DM147" s="58"/>
       <c r="DN147" s="58"/>
     </row>
-    <row r="148" spans="1:118">
+    <row r="148" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A148" s="56"/>
       <c r="B148" s="56"/>
       <c r="C148" s="56"/>
@@ -22674,7 +22923,7 @@
       <c r="DM148" s="58"/>
       <c r="DN148" s="58"/>
     </row>
-    <row r="149" spans="1:118">
+    <row r="149" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A149" s="56"/>
       <c r="B149" s="56"/>
       <c r="C149" s="56"/>
@@ -22794,7 +23043,7 @@
       <c r="DM149" s="58"/>
       <c r="DN149" s="58"/>
     </row>
-    <row r="150" spans="1:118">
+    <row r="150" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A150" s="56"/>
       <c r="B150" s="56"/>
       <c r="C150" s="56"/>
@@ -22914,7 +23163,7 @@
       <c r="DM150" s="58"/>
       <c r="DN150" s="58"/>
     </row>
-    <row r="151" spans="1:118">
+    <row r="151" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A151" s="56"/>
       <c r="B151" s="56"/>
       <c r="C151" s="56"/>
@@ -23034,7 +23283,7 @@
       <c r="DM151" s="58"/>
       <c r="DN151" s="58"/>
     </row>
-    <row r="152" spans="1:118">
+    <row r="152" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A152" s="56"/>
       <c r="B152" s="56"/>
       <c r="C152" s="56"/>
@@ -23154,7 +23403,7 @@
       <c r="DM152" s="58"/>
       <c r="DN152" s="58"/>
     </row>
-    <row r="153" spans="1:118">
+    <row r="153" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A153" s="56"/>
       <c r="B153" s="56"/>
       <c r="C153" s="56"/>
@@ -23274,7 +23523,7 @@
       <c r="DM153" s="58"/>
       <c r="DN153" s="58"/>
     </row>
-    <row r="154" spans="1:118">
+    <row r="154" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A154" s="56"/>
       <c r="B154" s="56"/>
       <c r="C154" s="56"/>
@@ -23394,7 +23643,7 @@
       <c r="DM154" s="58"/>
       <c r="DN154" s="58"/>
     </row>
-    <row r="155" spans="1:118">
+    <row r="155" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A155" s="56"/>
       <c r="B155" s="56"/>
       <c r="C155" s="56"/>
@@ -23514,7 +23763,7 @@
       <c r="DM155" s="58"/>
       <c r="DN155" s="58"/>
     </row>
-    <row r="156" spans="1:118">
+    <row r="156" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A156" s="56"/>
       <c r="B156" s="56"/>
       <c r="C156" s="56"/>
@@ -23634,7 +23883,7 @@
       <c r="DM156" s="58"/>
       <c r="DN156" s="58"/>
     </row>
-    <row r="157" spans="1:118">
+    <row r="157" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A157" s="56"/>
       <c r="B157" s="56"/>
       <c r="C157" s="56"/>
@@ -23754,7 +24003,7 @@
       <c r="DM157" s="58"/>
       <c r="DN157" s="58"/>
     </row>
-    <row r="158" spans="1:118">
+    <row r="158" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A158" s="56"/>
       <c r="B158" s="56"/>
       <c r="C158" s="56"/>
@@ -23874,7 +24123,7 @@
       <c r="DM158" s="58"/>
       <c r="DN158" s="58"/>
     </row>
-    <row r="159" spans="1:118">
+    <row r="159" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A159" s="56"/>
       <c r="B159" s="56"/>
       <c r="C159" s="56"/>
@@ -23994,7 +24243,7 @@
       <c r="DM159" s="58"/>
       <c r="DN159" s="58"/>
     </row>
-    <row r="160" spans="1:118">
+    <row r="160" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A160" s="56"/>
       <c r="B160" s="56"/>
       <c r="C160" s="56"/>
@@ -24114,7 +24363,7 @@
       <c r="DM160" s="58"/>
       <c r="DN160" s="58"/>
     </row>
-    <row r="161" spans="1:118">
+    <row r="161" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A161" s="56"/>
       <c r="B161" s="56"/>
       <c r="C161" s="56"/>
@@ -24234,7 +24483,7 @@
       <c r="DM161" s="58"/>
       <c r="DN161" s="58"/>
     </row>
-    <row r="162" spans="1:118">
+    <row r="162" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A162" s="56"/>
       <c r="B162" s="56"/>
       <c r="C162" s="56"/>
@@ -24354,7 +24603,7 @@
       <c r="DM162" s="58"/>
       <c r="DN162" s="58"/>
     </row>
-    <row r="163" spans="1:118">
+    <row r="163" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A163" s="56"/>
       <c r="B163" s="56"/>
       <c r="C163" s="56"/>
@@ -24474,7 +24723,7 @@
       <c r="DM163" s="58"/>
       <c r="DN163" s="58"/>
     </row>
-    <row r="164" spans="1:118">
+    <row r="164" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A164" s="58"/>
       <c r="B164" s="58"/>
       <c r="C164" s="58"/>
@@ -24594,7 +24843,7 @@
       <c r="DM164" s="58"/>
       <c r="DN164" s="58"/>
     </row>
-    <row r="165" spans="1:118">
+    <row r="165" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A165" s="58"/>
       <c r="B165" s="58"/>
       <c r="C165" s="58"/>
@@ -24714,7 +24963,7 @@
       <c r="DM165" s="58"/>
       <c r="DN165" s="58"/>
     </row>
-    <row r="166" spans="1:118">
+    <row r="166" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A166" s="58"/>
       <c r="B166" s="58"/>
       <c r="C166" s="58"/>
@@ -24834,7 +25083,7 @@
       <c r="DM166" s="58"/>
       <c r="DN166" s="58"/>
     </row>
-    <row r="167" spans="1:118">
+    <row r="167" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A167" s="58"/>
       <c r="B167" s="58"/>
       <c r="C167" s="58"/>
@@ -24954,7 +25203,7 @@
       <c r="DM167" s="58"/>
       <c r="DN167" s="58"/>
     </row>
-    <row r="168" spans="1:118">
+    <row r="168" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A168" s="58"/>
       <c r="B168" s="58"/>
       <c r="C168" s="58"/>
@@ -25074,7 +25323,7 @@
       <c r="DM168" s="58"/>
       <c r="DN168" s="58"/>
     </row>
-    <row r="169" spans="1:118">
+    <row r="169" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A169" s="58"/>
       <c r="B169" s="58"/>
       <c r="C169" s="58"/>
@@ -25194,7 +25443,7 @@
       <c r="DM169" s="58"/>
       <c r="DN169" s="58"/>
     </row>
-    <row r="170" spans="1:118">
+    <row r="170" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A170" s="58"/>
       <c r="B170" s="58"/>
       <c r="C170" s="58"/>
@@ -25314,7 +25563,7 @@
       <c r="DM170" s="58"/>
       <c r="DN170" s="58"/>
     </row>
-    <row r="171" spans="1:118">
+    <row r="171" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A171" s="58"/>
       <c r="B171" s="58"/>
       <c r="C171" s="58"/>
@@ -25434,7 +25683,7 @@
       <c r="DM171" s="58"/>
       <c r="DN171" s="58"/>
     </row>
-    <row r="172" spans="1:118">
+    <row r="172" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A172" s="58"/>
       <c r="B172" s="58"/>
       <c r="C172" s="58"/>
@@ -25554,7 +25803,7 @@
       <c r="DM172" s="58"/>
       <c r="DN172" s="58"/>
     </row>
-    <row r="173" spans="1:118">
+    <row r="173" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A173" s="58"/>
       <c r="B173" s="58"/>
       <c r="C173" s="58"/>
@@ -25674,7 +25923,7 @@
       <c r="DM173" s="58"/>
       <c r="DN173" s="58"/>
     </row>
-    <row r="174" spans="1:118">
+    <row r="174" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A174" s="58"/>
       <c r="B174" s="58"/>
       <c r="C174" s="58"/>
@@ -25794,7 +26043,7 @@
       <c r="DM174" s="58"/>
       <c r="DN174" s="58"/>
     </row>
-    <row r="175" spans="1:118">
+    <row r="175" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A175" s="58"/>
       <c r="B175" s="58"/>
       <c r="C175" s="58"/>
@@ -25914,7 +26163,7 @@
       <c r="DM175" s="58"/>
       <c r="DN175" s="58"/>
     </row>
-    <row r="176" spans="1:118">
+    <row r="176" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A176" s="58"/>
       <c r="B176" s="58"/>
       <c r="C176" s="58"/>
@@ -26034,7 +26283,7 @@
       <c r="DM176" s="58"/>
       <c r="DN176" s="58"/>
     </row>
-    <row r="177" spans="1:118">
+    <row r="177" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A177" s="58"/>
       <c r="B177" s="58"/>
       <c r="C177" s="58"/>
@@ -26154,7 +26403,7 @@
       <c r="DM177" s="58"/>
       <c r="DN177" s="58"/>
     </row>
-    <row r="178" spans="1:118">
+    <row r="178" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A178" s="58"/>
       <c r="B178" s="58"/>
       <c r="C178" s="58"/>
@@ -26274,7 +26523,7 @@
       <c r="DM178" s="58"/>
       <c r="DN178" s="58"/>
     </row>
-    <row r="179" spans="1:118">
+    <row r="179" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A179" s="58"/>
       <c r="B179" s="58"/>
       <c r="C179" s="58"/>
@@ -26394,7 +26643,7 @@
       <c r="DM179" s="58"/>
       <c r="DN179" s="58"/>
     </row>
-    <row r="180" spans="1:118">
+    <row r="180" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A180" s="58"/>
       <c r="B180" s="58"/>
       <c r="C180" s="58"/>
@@ -26514,7 +26763,7 @@
       <c r="DM180" s="58"/>
       <c r="DN180" s="58"/>
     </row>
-    <row r="181" spans="1:118">
+    <row r="181" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A181" s="58"/>
       <c r="B181" s="58"/>
       <c r="C181" s="58"/>
@@ -26634,7 +26883,7 @@
       <c r="DM181" s="58"/>
       <c r="DN181" s="58"/>
     </row>
-    <row r="182" spans="1:118">
+    <row r="182" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A182" s="58"/>
       <c r="B182" s="58"/>
       <c r="C182" s="58"/>
@@ -26754,7 +27003,7 @@
       <c r="DM182" s="58"/>
       <c r="DN182" s="58"/>
     </row>
-    <row r="183" spans="1:118">
+    <row r="183" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A183" s="58"/>
       <c r="B183" s="58"/>
       <c r="C183" s="58"/>
@@ -26874,7 +27123,7 @@
       <c r="DM183" s="58"/>
       <c r="DN183" s="58"/>
     </row>
-    <row r="184" spans="1:118">
+    <row r="184" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A184" s="58"/>
       <c r="B184" s="58"/>
       <c r="C184" s="58"/>
@@ -26994,7 +27243,7 @@
       <c r="DM184" s="58"/>
       <c r="DN184" s="58"/>
     </row>
-    <row r="185" spans="1:118">
+    <row r="185" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A185" s="58"/>
       <c r="B185" s="58"/>
       <c r="C185" s="58"/>
@@ -27114,7 +27363,7 @@
       <c r="DM185" s="58"/>
       <c r="DN185" s="58"/>
     </row>
-    <row r="186" spans="1:118">
+    <row r="186" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A186" s="58"/>
       <c r="B186" s="58"/>
       <c r="C186" s="58"/>
@@ -27234,7 +27483,7 @@
       <c r="DM186" s="58"/>
       <c r="DN186" s="58"/>
     </row>
-    <row r="187" spans="1:118">
+    <row r="187" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A187" s="58"/>
       <c r="B187" s="58"/>
       <c r="C187" s="58"/>
@@ -27354,7 +27603,7 @@
       <c r="DM187" s="58"/>
       <c r="DN187" s="58"/>
     </row>
-    <row r="188" spans="1:118">
+    <row r="188" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A188" s="58"/>
       <c r="B188" s="58"/>
       <c r="C188" s="58"/>
@@ -27474,7 +27723,7 @@
       <c r="DM188" s="58"/>
       <c r="DN188" s="58"/>
     </row>
-    <row r="189" spans="1:118">
+    <row r="189" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A189" s="58"/>
       <c r="B189" s="58"/>
       <c r="C189" s="58"/>
@@ -27594,7 +27843,7 @@
       <c r="DM189" s="58"/>
       <c r="DN189" s="58"/>
     </row>
-    <row r="190" spans="1:118">
+    <row r="190" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A190" s="58"/>
       <c r="B190" s="58"/>
       <c r="C190" s="58"/>
@@ -27714,7 +27963,7 @@
       <c r="DM190" s="58"/>
       <c r="DN190" s="58"/>
     </row>
-    <row r="191" spans="1:118">
+    <row r="191" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A191" s="58"/>
       <c r="B191" s="58"/>
       <c r="C191" s="58"/>
@@ -27834,7 +28083,7 @@
       <c r="DM191" s="58"/>
       <c r="DN191" s="58"/>
     </row>
-    <row r="192" spans="1:118">
+    <row r="192" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A192" s="58"/>
       <c r="B192" s="58"/>
       <c r="C192" s="58"/>
@@ -27954,7 +28203,7 @@
       <c r="DM192" s="58"/>
       <c r="DN192" s="58"/>
     </row>
-    <row r="193" spans="1:118">
+    <row r="193" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A193" s="58"/>
       <c r="B193" s="58"/>
       <c r="C193" s="58"/>
@@ -28074,7 +28323,7 @@
       <c r="DM193" s="58"/>
       <c r="DN193" s="58"/>
     </row>
-    <row r="194" spans="1:118">
+    <row r="194" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A194" s="58"/>
       <c r="B194" s="58"/>
       <c r="C194" s="58"/>
@@ -28194,7 +28443,7 @@
       <c r="DM194" s="58"/>
       <c r="DN194" s="58"/>
     </row>
-    <row r="195" spans="1:118">
+    <row r="195" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A195" s="58"/>
       <c r="B195" s="58"/>
       <c r="C195" s="58"/>
@@ -28314,7 +28563,7 @@
       <c r="DM195" s="58"/>
       <c r="DN195" s="58"/>
     </row>
-    <row r="196" spans="1:118">
+    <row r="196" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A196" s="58"/>
       <c r="B196" s="58"/>
       <c r="C196" s="58"/>
@@ -28434,7 +28683,7 @@
       <c r="DM196" s="58"/>
       <c r="DN196" s="58"/>
     </row>
-    <row r="197" spans="1:118">
+    <row r="197" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A197" s="58"/>
       <c r="B197" s="58"/>
       <c r="C197" s="58"/>
@@ -28554,7 +28803,7 @@
       <c r="DM197" s="58"/>
       <c r="DN197" s="58"/>
     </row>
-    <row r="198" spans="1:118">
+    <row r="198" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A198" s="58"/>
       <c r="B198" s="58"/>
       <c r="C198" s="58"/>
@@ -28674,7 +28923,7 @@
       <c r="DM198" s="58"/>
       <c r="DN198" s="58"/>
     </row>
-    <row r="199" spans="1:118">
+    <row r="199" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A199" s="58"/>
       <c r="B199" s="58"/>
       <c r="C199" s="58"/>
@@ -28794,7 +29043,7 @@
       <c r="DM199" s="58"/>
       <c r="DN199" s="58"/>
     </row>
-    <row r="200" spans="1:118">
+    <row r="200" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A200" s="58"/>
       <c r="B200" s="58"/>
       <c r="C200" s="58"/>
@@ -28914,7 +29163,7 @@
       <c r="DM200" s="58"/>
       <c r="DN200" s="58"/>
     </row>
-    <row r="201" spans="1:118">
+    <row r="201" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A201" s="58"/>
       <c r="B201" s="58"/>
       <c r="C201" s="58"/>
@@ -29034,7 +29283,7 @@
       <c r="DM201" s="58"/>
       <c r="DN201" s="58"/>
     </row>
-    <row r="202" spans="1:118">
+    <row r="202" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A202" s="58"/>
       <c r="B202" s="58"/>
       <c r="C202" s="58"/>
@@ -29154,7 +29403,7 @@
       <c r="DM202" s="58"/>
       <c r="DN202" s="58"/>
     </row>
-    <row r="203" spans="1:118">
+    <row r="203" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A203" s="58"/>
       <c r="B203" s="58"/>
       <c r="C203" s="58"/>
@@ -29274,7 +29523,7 @@
       <c r="DM203" s="58"/>
       <c r="DN203" s="58"/>
     </row>
-    <row r="204" spans="1:118">
+    <row r="204" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A204" s="58"/>
       <c r="B204" s="58"/>
       <c r="C204" s="58"/>
@@ -29394,7 +29643,7 @@
       <c r="DM204" s="58"/>
       <c r="DN204" s="58"/>
     </row>
-    <row r="205" spans="1:118">
+    <row r="205" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A205" s="58"/>
       <c r="B205" s="58"/>
       <c r="C205" s="58"/>
@@ -29514,7 +29763,7 @@
       <c r="DM205" s="58"/>
       <c r="DN205" s="58"/>
     </row>
-    <row r="206" spans="1:118">
+    <row r="206" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A206" s="58"/>
       <c r="B206" s="58"/>
       <c r="C206" s="58"/>
@@ -29634,7 +29883,7 @@
       <c r="DM206" s="58"/>
       <c r="DN206" s="58"/>
     </row>
-    <row r="207" spans="1:118">
+    <row r="207" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A207" s="58"/>
       <c r="B207" s="58"/>
       <c r="C207" s="58"/>
@@ -29754,7 +30003,7 @@
       <c r="DM207" s="58"/>
       <c r="DN207" s="58"/>
     </row>
-    <row r="208" spans="1:118">
+    <row r="208" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A208" s="58"/>
       <c r="B208" s="58"/>
       <c r="C208" s="58"/>
@@ -29874,7 +30123,7 @@
       <c r="DM208" s="58"/>
       <c r="DN208" s="58"/>
     </row>
-    <row r="209" spans="1:118">
+    <row r="209" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A209" s="58"/>
       <c r="B209" s="58"/>
       <c r="C209" s="58"/>
@@ -29994,7 +30243,7 @@
       <c r="DM209" s="58"/>
       <c r="DN209" s="58"/>
     </row>
-    <row r="210" spans="1:118">
+    <row r="210" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A210" s="58"/>
       <c r="B210" s="58"/>
       <c r="C210" s="58"/>
@@ -30114,7 +30363,7 @@
       <c r="DM210" s="58"/>
       <c r="DN210" s="58"/>
     </row>
-    <row r="211" spans="1:118">
+    <row r="211" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A211" s="58"/>
       <c r="B211" s="58"/>
       <c r="C211" s="58"/>
@@ -30234,7 +30483,7 @@
       <c r="DM211" s="58"/>
       <c r="DN211" s="58"/>
     </row>
-    <row r="212" spans="1:118">
+    <row r="212" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A212" s="58"/>
       <c r="B212" s="58"/>
       <c r="C212" s="58"/>
@@ -30354,7 +30603,7 @@
       <c r="DM212" s="58"/>
       <c r="DN212" s="58"/>
     </row>
-    <row r="213" spans="1:118">
+    <row r="213" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A213" s="58"/>
       <c r="B213" s="58"/>
       <c r="C213" s="58"/>
@@ -30474,7 +30723,7 @@
       <c r="DM213" s="58"/>
       <c r="DN213" s="58"/>
     </row>
-    <row r="214" spans="1:118">
+    <row r="214" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A214" s="58"/>
       <c r="B214" s="58"/>
       <c r="C214" s="58"/>
@@ -30594,7 +30843,7 @@
       <c r="DM214" s="58"/>
       <c r="DN214" s="58"/>
     </row>
-    <row r="215" spans="1:118">
+    <row r="215" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A215" s="58"/>
       <c r="B215" s="58"/>
       <c r="C215" s="58"/>
@@ -30714,7 +30963,7 @@
       <c r="DM215" s="58"/>
       <c r="DN215" s="58"/>
     </row>
-    <row r="216" spans="1:118">
+    <row r="216" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A216" s="58"/>
       <c r="B216" s="58"/>
       <c r="C216" s="58"/>
@@ -30834,7 +31083,7 @@
       <c r="DM216" s="58"/>
       <c r="DN216" s="58"/>
     </row>
-    <row r="217" spans="1:118">
+    <row r="217" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A217" s="58"/>
       <c r="B217" s="58"/>
       <c r="C217" s="58"/>
@@ -30954,7 +31203,7 @@
       <c r="DM217" s="58"/>
       <c r="DN217" s="58"/>
     </row>
-    <row r="218" spans="1:118">
+    <row r="218" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A218" s="58"/>
       <c r="B218" s="58"/>
       <c r="C218" s="58"/>
@@ -31074,7 +31323,7 @@
       <c r="DM218" s="58"/>
       <c r="DN218" s="58"/>
     </row>
-    <row r="219" spans="1:118">
+    <row r="219" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A219" s="58"/>
       <c r="B219" s="58"/>
       <c r="C219" s="58"/>
@@ -31194,7 +31443,7 @@
       <c r="DM219" s="58"/>
       <c r="DN219" s="58"/>
     </row>
-    <row r="220" spans="1:118">
+    <row r="220" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A220" s="58"/>
       <c r="B220" s="58"/>
       <c r="C220" s="58"/>
@@ -31314,7 +31563,7 @@
       <c r="DM220" s="58"/>
       <c r="DN220" s="58"/>
     </row>
-    <row r="221" spans="1:118">
+    <row r="221" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A221" s="58"/>
       <c r="B221" s="58"/>
       <c r="C221" s="58"/>
@@ -31434,7 +31683,7 @@
       <c r="DM221" s="58"/>
       <c r="DN221" s="58"/>
     </row>
-    <row r="222" spans="1:118">
+    <row r="222" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A222" s="58"/>
       <c r="B222" s="58"/>
       <c r="C222" s="58"/>
@@ -31554,7 +31803,7 @@
       <c r="DM222" s="58"/>
       <c r="DN222" s="58"/>
     </row>
-    <row r="223" spans="1:118">
+    <row r="223" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A223" s="58"/>
       <c r="B223" s="58"/>
       <c r="C223" s="58"/>
@@ -31674,7 +31923,7 @@
       <c r="DM223" s="58"/>
       <c r="DN223" s="58"/>
     </row>
-    <row r="224" spans="1:118">
+    <row r="224" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A224" s="58"/>
       <c r="B224" s="58"/>
       <c r="C224" s="58"/>
@@ -31794,7 +32043,7 @@
       <c r="DM224" s="58"/>
       <c r="DN224" s="58"/>
     </row>
-    <row r="225" spans="1:118">
+    <row r="225" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A225" s="58"/>
       <c r="B225" s="58"/>
       <c r="C225" s="58"/>
@@ -31914,7 +32163,7 @@
       <c r="DM225" s="58"/>
       <c r="DN225" s="58"/>
     </row>
-    <row r="226" spans="1:118">
+    <row r="226" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A226" s="58"/>
       <c r="B226" s="58"/>
       <c r="C226" s="58"/>
@@ -32034,7 +32283,7 @@
       <c r="DM226" s="58"/>
       <c r="DN226" s="58"/>
     </row>
-    <row r="227" spans="1:118">
+    <row r="227" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A227" s="58"/>
       <c r="B227" s="58"/>
       <c r="C227" s="58"/>
@@ -32154,7 +32403,7 @@
       <c r="DM227" s="58"/>
       <c r="DN227" s="58"/>
     </row>
-    <row r="228" spans="1:118">
+    <row r="228" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A228" s="58"/>
       <c r="B228" s="58"/>
       <c r="C228" s="58"/>
@@ -32274,7 +32523,7 @@
       <c r="DM228" s="58"/>
       <c r="DN228" s="58"/>
     </row>
-    <row r="229" spans="1:118">
+    <row r="229" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A229" s="58"/>
       <c r="B229" s="58"/>
       <c r="C229" s="58"/>
@@ -32394,7 +32643,7 @@
       <c r="DM229" s="58"/>
       <c r="DN229" s="58"/>
     </row>
-    <row r="230" spans="1:118">
+    <row r="230" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A230" s="58"/>
       <c r="B230" s="58"/>
       <c r="C230" s="58"/>
@@ -32514,7 +32763,7 @@
       <c r="DM230" s="58"/>
       <c r="DN230" s="58"/>
     </row>
-    <row r="231" spans="1:118">
+    <row r="231" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A231" s="58"/>
       <c r="B231" s="58"/>
       <c r="C231" s="58"/>
@@ -32634,7 +32883,7 @@
       <c r="DM231" s="58"/>
       <c r="DN231" s="58"/>
     </row>
-    <row r="232" spans="1:118">
+    <row r="232" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A232" s="58"/>
       <c r="B232" s="58"/>
       <c r="C232" s="58"/>
@@ -32754,7 +33003,7 @@
       <c r="DM232" s="58"/>
       <c r="DN232" s="58"/>
     </row>
-    <row r="233" spans="1:118">
+    <row r="233" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A233" s="58"/>
       <c r="B233" s="58"/>
       <c r="C233" s="58"/>
@@ -32874,7 +33123,7 @@
       <c r="DM233" s="58"/>
       <c r="DN233" s="58"/>
     </row>
-    <row r="234" spans="1:118">
+    <row r="234" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A234" s="58"/>
       <c r="B234" s="58"/>
       <c r="C234" s="58"/>
@@ -32994,7 +33243,7 @@
       <c r="DM234" s="58"/>
       <c r="DN234" s="58"/>
     </row>
-    <row r="235" spans="1:118">
+    <row r="235" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A235" s="58"/>
       <c r="B235" s="58"/>
       <c r="C235" s="58"/>
@@ -33114,7 +33363,7 @@
       <c r="DM235" s="58"/>
       <c r="DN235" s="58"/>
     </row>
-    <row r="236" spans="1:118">
+    <row r="236" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A236" s="58"/>
       <c r="B236" s="58"/>
       <c r="C236" s="58"/>
@@ -33234,7 +33483,7 @@
       <c r="DM236" s="58"/>
       <c r="DN236" s="58"/>
     </row>
-    <row r="237" spans="1:118">
+    <row r="237" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A237" s="58"/>
       <c r="B237" s="58"/>
       <c r="C237" s="58"/>
@@ -33354,7 +33603,7 @@
       <c r="DM237" s="58"/>
       <c r="DN237" s="58"/>
     </row>
-    <row r="238" spans="1:118">
+    <row r="238" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A238" s="58"/>
       <c r="B238" s="58"/>
       <c r="C238" s="58"/>
@@ -33474,7 +33723,7 @@
       <c r="DM238" s="58"/>
       <c r="DN238" s="58"/>
     </row>
-    <row r="239" spans="1:118">
+    <row r="239" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A239" s="58"/>
       <c r="B239" s="58"/>
       <c r="C239" s="58"/>
@@ -33594,7 +33843,7 @@
       <c r="DM239" s="58"/>
       <c r="DN239" s="58"/>
     </row>
-    <row r="240" spans="1:118">
+    <row r="240" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A240" s="58"/>
       <c r="B240" s="58"/>
       <c r="C240" s="58"/>
@@ -33714,7 +33963,7 @@
       <c r="DM240" s="58"/>
       <c r="DN240" s="58"/>
     </row>
-    <row r="241" spans="1:118">
+    <row r="241" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A241" s="58"/>
       <c r="B241" s="58"/>
       <c r="C241" s="58"/>
@@ -33834,7 +34083,7 @@
       <c r="DM241" s="58"/>
       <c r="DN241" s="58"/>
     </row>
-    <row r="242" spans="1:118">
+    <row r="242" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A242" s="58"/>
       <c r="B242" s="58"/>
       <c r="C242" s="58"/>
@@ -33954,7 +34203,7 @@
       <c r="DM242" s="58"/>
       <c r="DN242" s="58"/>
     </row>
-    <row r="243" spans="1:118">
+    <row r="243" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A243" s="58"/>
       <c r="B243" s="58"/>
       <c r="C243" s="58"/>
@@ -34074,7 +34323,7 @@
       <c r="DM243" s="58"/>
       <c r="DN243" s="58"/>
     </row>
-    <row r="244" spans="1:118">
+    <row r="244" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A244" s="58"/>
       <c r="B244" s="58"/>
       <c r="C244" s="58"/>
@@ -34194,7 +34443,7 @@
       <c r="DM244" s="58"/>
       <c r="DN244" s="58"/>
     </row>
-    <row r="245" spans="1:118">
+    <row r="245" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A245" s="58"/>
       <c r="B245" s="58"/>
       <c r="C245" s="58"/>
@@ -34314,7 +34563,7 @@
       <c r="DM245" s="58"/>
       <c r="DN245" s="58"/>
     </row>
-    <row r="246" spans="1:118">
+    <row r="246" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A246" s="58"/>
       <c r="B246" s="58"/>
       <c r="C246" s="58"/>
@@ -34434,7 +34683,7 @@
       <c r="DM246" s="58"/>
       <c r="DN246" s="58"/>
     </row>
-    <row r="247" spans="1:118">
+    <row r="247" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A247" s="58"/>
       <c r="B247" s="58"/>
       <c r="C247" s="58"/>
@@ -34554,7 +34803,7 @@
       <c r="DM247" s="58"/>
       <c r="DN247" s="58"/>
     </row>
-    <row r="248" spans="1:118">
+    <row r="248" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A248" s="58"/>
       <c r="B248" s="58"/>
       <c r="C248" s="58"/>
@@ -34674,7 +34923,7 @@
       <c r="DM248" s="58"/>
       <c r="DN248" s="58"/>
     </row>
-    <row r="249" spans="1:118">
+    <row r="249" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A249" s="58"/>
       <c r="B249" s="58"/>
       <c r="C249" s="58"/>
@@ -34794,7 +35043,7 @@
       <c r="DM249" s="58"/>
       <c r="DN249" s="58"/>
     </row>
-    <row r="250" spans="1:118">
+    <row r="250" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A250" s="58"/>
       <c r="B250" s="58"/>
       <c r="C250" s="58"/>
@@ -34914,7 +35163,7 @@
       <c r="DM250" s="58"/>
       <c r="DN250" s="58"/>
     </row>
-    <row r="251" spans="1:118">
+    <row r="251" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A251" s="58"/>
       <c r="B251" s="58"/>
       <c r="C251" s="58"/>
@@ -35034,7 +35283,7 @@
       <c r="DM251" s="58"/>
       <c r="DN251" s="58"/>
     </row>
-    <row r="252" spans="1:118">
+    <row r="252" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A252" s="58"/>
       <c r="B252" s="58"/>
       <c r="C252" s="58"/>
@@ -35154,7 +35403,7 @@
       <c r="DM252" s="58"/>
       <c r="DN252" s="58"/>
     </row>
-    <row r="253" spans="1:118">
+    <row r="253" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A253" s="58"/>
       <c r="B253" s="58"/>
       <c r="C253" s="58"/>
@@ -35274,7 +35523,7 @@
       <c r="DM253" s="58"/>
       <c r="DN253" s="58"/>
     </row>
-    <row r="254" spans="1:118">
+    <row r="254" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A254" s="58"/>
       <c r="B254" s="58"/>
       <c r="C254" s="58"/>
@@ -35394,7 +35643,7 @@
       <c r="DM254" s="58"/>
       <c r="DN254" s="58"/>
     </row>
-    <row r="255" spans="1:118">
+    <row r="255" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A255" s="58"/>
       <c r="B255" s="58"/>
       <c r="C255" s="58"/>
@@ -35514,7 +35763,7 @@
       <c r="DM255" s="58"/>
       <c r="DN255" s="58"/>
     </row>
-    <row r="256" spans="1:118">
+    <row r="256" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A256" s="58"/>
       <c r="B256" s="58"/>
       <c r="C256" s="58"/>
@@ -35634,7 +35883,7 @@
       <c r="DM256" s="58"/>
       <c r="DN256" s="58"/>
     </row>
-    <row r="257" spans="1:118">
+    <row r="257" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A257" s="58"/>
       <c r="B257" s="58"/>
       <c r="C257" s="58"/>
@@ -35754,7 +36003,7 @@
       <c r="DM257" s="58"/>
       <c r="DN257" s="58"/>
     </row>
-    <row r="258" spans="1:118">
+    <row r="258" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A258" s="58"/>
       <c r="B258" s="58"/>
       <c r="C258" s="58"/>
@@ -35874,7 +36123,7 @@
       <c r="DM258" s="58"/>
       <c r="DN258" s="58"/>
     </row>
-    <row r="259" spans="1:118">
+    <row r="259" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A259" s="58"/>
       <c r="B259" s="58"/>
       <c r="C259" s="58"/>
@@ -35994,7 +36243,7 @@
       <c r="DM259" s="58"/>
       <c r="DN259" s="58"/>
     </row>
-    <row r="260" spans="1:118">
+    <row r="260" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A260" s="58"/>
       <c r="B260" s="58"/>
       <c r="C260" s="58"/>
@@ -36114,7 +36363,7 @@
       <c r="DM260" s="58"/>
       <c r="DN260" s="58"/>
     </row>
-    <row r="261" spans="1:118">
+    <row r="261" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A261" s="58"/>
       <c r="B261" s="58"/>
       <c r="C261" s="58"/>
@@ -36234,7 +36483,7 @@
       <c r="DM261" s="58"/>
       <c r="DN261" s="58"/>
     </row>
-    <row r="262" spans="1:118">
+    <row r="262" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A262" s="58"/>
       <c r="B262" s="58"/>
       <c r="C262" s="58"/>
@@ -36354,7 +36603,7 @@
       <c r="DM262" s="58"/>
       <c r="DN262" s="58"/>
     </row>
-    <row r="263" spans="1:118">
+    <row r="263" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A263" s="58"/>
       <c r="B263" s="58"/>
       <c r="C263" s="58"/>
@@ -36474,7 +36723,7 @@
       <c r="DM263" s="58"/>
       <c r="DN263" s="58"/>
     </row>
-    <row r="264" spans="1:118">
+    <row r="264" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A264" s="58"/>
       <c r="B264" s="58"/>
       <c r="C264" s="58"/>
@@ -36594,7 +36843,7 @@
       <c r="DM264" s="58"/>
       <c r="DN264" s="58"/>
     </row>
-    <row r="265" spans="1:118">
+    <row r="265" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A265" s="58"/>
       <c r="B265" s="58"/>
       <c r="C265" s="58"/>
@@ -36714,7 +36963,7 @@
       <c r="DM265" s="58"/>
       <c r="DN265" s="58"/>
     </row>
-    <row r="266" spans="1:118">
+    <row r="266" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A266" s="58"/>
       <c r="B266" s="58"/>
       <c r="C266" s="58"/>
@@ -36834,7 +37083,7 @@
       <c r="DM266" s="58"/>
       <c r="DN266" s="58"/>
     </row>
-    <row r="267" spans="1:118">
+    <row r="267" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A267" s="58"/>
       <c r="B267" s="58"/>
       <c r="C267" s="58"/>
@@ -36954,7 +37203,7 @@
       <c r="DM267" s="58"/>
       <c r="DN267" s="58"/>
     </row>
-    <row r="268" spans="1:118">
+    <row r="268" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A268" s="58"/>
       <c r="B268" s="58"/>
       <c r="C268" s="58"/>
@@ -37074,7 +37323,7 @@
       <c r="DM268" s="58"/>
       <c r="DN268" s="58"/>
     </row>
-    <row r="269" spans="1:118">
+    <row r="269" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A269" s="58"/>
       <c r="B269" s="58"/>
       <c r="C269" s="58"/>
@@ -37194,7 +37443,7 @@
       <c r="DM269" s="58"/>
       <c r="DN269" s="58"/>
     </row>
-    <row r="270" spans="1:118">
+    <row r="270" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A270" s="58"/>
       <c r="B270" s="58"/>
       <c r="C270" s="58"/>
@@ -37314,7 +37563,7 @@
       <c r="DM270" s="58"/>
       <c r="DN270" s="58"/>
     </row>
-    <row r="271" spans="1:118">
+    <row r="271" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A271" s="58"/>
       <c r="B271" s="58"/>
       <c r="C271" s="58"/>
@@ -37435,7 +37684,7 @@
       <c r="DN271" s="58"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="fTZyBiKNayz+FG2YbMt/tG26PwW5F1qqi4EQyu13gIT4NTdwcC49qMc2T3H1Y8o5YHzPZsLejnlb3ahnF27WSw==" saltValue="MySnIYXIRlSU0KTFDVYeBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="8">
     <mergeCell ref="G107:H107"/>
@@ -37448,7 +37697,7 @@
     <mergeCell ref="J72:K72"/>
   </mergeCells>
   <conditionalFormatting sqref="N38:O69">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>ABS(N38)&gt;=10%</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37458,462 +37707,1433 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FFDCAD-2A03-D04A-967F-E15B5E2E300F}">
-  <dimension ref="A1:C33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A80B43-80C9-784F-88AA-B65F2CE7D5D9}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C33"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="34.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3">
-        <f>Utilidad!J38</f>
-        <v>116693.36667490551</v>
-      </c>
-      <c r="C2" s="2">
-        <f>Utilidad!K38</f>
-        <v>0.65429897226012024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3">
-        <f>Utilidad!J39</f>
-        <v>-721.92297814554104</v>
-      </c>
-      <c r="C3" s="2">
-        <f>Utilidad!K39</f>
-        <v>0.65725700876426141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="3">
-        <f>Utilidad!J40</f>
-        <v>117415.28965309721</v>
-      </c>
-      <c r="C4" s="2">
-        <f>Utilidad!K40</f>
-        <v>0.6543171596230668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="3">
-        <f>Utilidad!J41</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="2">
-        <f>Utilidad!K41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="3">
-        <f>Utilidad!J42</f>
-        <v>117415.28965309721</v>
-      </c>
-      <c r="C6" s="2">
-        <f>Utilidad!K42</f>
-        <v>0.6543171596230668</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="3">
-        <f>Utilidad!J43</f>
-        <v>214.28587979820975</v>
-      </c>
-      <c r="C7" s="2">
-        <f>Utilidad!K43</f>
-        <v>0.65731774861230396</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3">
-        <f>Utilidad!J44</f>
-        <v>117201.00377330006</v>
-      </c>
-      <c r="C8" s="2">
-        <f>Utilidad!K44</f>
-        <v>0.65431167345956198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <f>Utilidad!J45</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="2">
-        <f>Utilidad!K45</f>
-        <v>0.6573</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="3">
-        <f>Utilidad!J46</f>
-        <v>117201.00377330006</v>
-      </c>
-      <c r="C10" s="2">
-        <f>Utilidad!K46</f>
-        <v>0.65431167345956198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="3">
-        <f>Utilidad!J47</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="2">
-        <f>Utilidad!K47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="3">
-        <f>Utilidad!J48</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
-        <f>Utilidad!K48</f>
-        <v>0.65431167345956198</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3">
-        <f>Utilidad!J49</f>
-        <v>-4694.9962266999401</v>
-      </c>
-      <c r="C13" s="2">
-        <f>Utilidad!K49</f>
-        <v>0.64102711639907584</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="3">
-        <f>Utilidad!J50</f>
-        <v>121896</v>
-      </c>
-      <c r="C14" s="2">
-        <f>Utilidad!K50</f>
-        <v>0.65380000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="3">
-        <f>Utilidad!J51</f>
-        <v>73073.256251293904</v>
-      </c>
-      <c r="C15" s="2">
-        <f>Utilidad!K51</f>
-        <v>0.64890549893004068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="3">
-        <f>Utilidad!J52</f>
-        <v>152.41625129390741</v>
-      </c>
-      <c r="C16" s="2">
-        <f>Utilidad!K52</f>
-        <v>0.65067471721576897</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="3">
-        <f>Utilidad!J53</f>
-        <v>72920.84</v>
-      </c>
-      <c r="C17" s="2">
-        <f>Utilidad!K53</f>
-        <v>0.64890180098006056</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="3">
-        <f>Utilidad!J54</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="2">
-        <f>Utilidad!K54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="3">
-        <f>Utilidad!J55</f>
-        <v>72920.84</v>
-      </c>
-      <c r="C19" s="2">
-        <f>Utilidad!K55</f>
-        <v>0.64890180098006056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="3">
-        <f>Utilidad!J56</f>
-        <v>73.999946397426484</v>
-      </c>
-      <c r="C20" s="2">
-        <f>Utilidad!K56</f>
-        <v>0.65067471721576897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <f>Utilidad!J57</f>
-        <v>72846.840053602573</v>
-      </c>
-      <c r="C21" s="2">
-        <f>Utilidad!K57</f>
-        <v>0.64889999999999992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="3">
-        <f>Utilidad!J58</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
-        <f>Utilidad!K58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="3">
-        <f>Utilidad!J59</f>
-        <v>72846.840053602573</v>
-      </c>
-      <c r="C23" s="2">
-        <f>Utilidad!K59</f>
-        <v>0.64889999999999992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="3">
-        <f>Utilidad!J60</f>
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
-        <f>Utilidad!K60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" s="3">
-        <f>Utilidad!J61</f>
-        <v>72846.840053602587</v>
-      </c>
-      <c r="C25" s="2">
-        <f>Utilidad!K61</f>
-        <v>0.64890000000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="3">
-        <f>Utilidad!J62</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="2">
-        <f>Utilidad!K62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="3">
-        <f>Utilidad!J63</f>
-        <v>15475.332453602576</v>
-      </c>
-      <c r="C27" s="2">
-        <f>Utilidad!K63</f>
-        <v>0.63518302232404666</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="51" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="3">
-        <f>Utilidad!J64</f>
-        <v>57371.507599999997</v>
-      </c>
-      <c r="C28" s="2">
-        <f>Utilidad!K64</f>
-        <v>0.65259999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="3">
-        <f>Utilidad!J65</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="2">
-        <f>Utilidad!K65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="51" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="3">
-        <f>Utilidad!J66</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="2">
-        <f>Utilidad!K66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="3">
-        <f>Utilidad!J67</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="2">
-        <f>Utilidad!K67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="3">
-        <f>Utilidad!J68</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <f>Utilidad!K68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="3">
-        <f>Utilidad!J69</f>
-        <v>179267.50760000001</v>
-      </c>
-      <c r="C33" s="2">
-        <f>Utilidad!K69</f>
-        <v>0.65341596047135531</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03FFDCAD-2A03-D04A-967F-E15B5E2E300F}">
+  <dimension ref="B2:N35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="16.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="40" x14ac:dyDescent="0.25">
+      <c r="B2" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="F2" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="J2" s="96" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" s="97"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="100" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B3" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="102"/>
+      <c r="M3" s="103"/>
+      <c r="N3" s="104"/>
+    </row>
+    <row r="4" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3">
+        <f>Utilidad!A1</f>
+        <v>116693.36667490551</v>
+      </c>
+      <c r="D4" s="2">
+        <f>IF(Utilidad!C1&gt;1,Utilidad!C1/100,Utilidad!C1)</f>
+        <v>0.65429897226012024</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3">
+        <f>Utilidad!B1</f>
+        <v>116693.36667490551</v>
+      </c>
+      <c r="H4" s="2">
+        <f>IF(Utilidad!D1&gt;1,Utilidad!D1/100,Utilidad!D1)</f>
+        <v>0.65429897226012024</v>
+      </c>
+      <c r="J4" s="105">
+        <f>+IF(C4&lt;&gt;0,(G4-C4)/C4,ABS(G4-C4))</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="105">
+        <f>+IF(D4&lt;&gt;0,(H4-D4)/D4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="106"/>
+      <c r="M4" s="107">
+        <f t="shared" ref="M4:M5" si="0">+IF(J4&lt;&gt;"",ABS(J4),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="108">
+        <f>+IF(J4&lt;&gt;"",ABS(K4),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3">
+        <f>Utilidad!A2</f>
+        <v>-721.92297814554104</v>
+      </c>
+      <c r="D5" s="2">
+        <f>IF(Utilidad!C2&gt;1,Utilidad!C2/100,Utilidad!C2)</f>
+        <v>0.65725700876426141</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="3">
+        <f>Utilidad!B2</f>
+        <v>-721.92297814554104</v>
+      </c>
+      <c r="H5" s="2">
+        <f>IF(Utilidad!D2&gt;1,Utilidad!D2/100,Utilidad!D2)</f>
+        <v>0.65725700876426141</v>
+      </c>
+      <c r="J5" s="105">
+        <f t="shared" ref="J5:J35" si="1">+IF(C5&lt;&gt;0,(G5-C5)/C5,ABS(G5-C5))</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="105">
+        <f t="shared" ref="K5:K35" si="2">+IF(D5&lt;&gt;0,(H5-D5)/D5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="106"/>
+      <c r="M5" s="107">
+        <f t="shared" ref="M5:M35" si="3">+IF(J5&lt;&gt;"",ABS(J5),0)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="108">
+        <f t="shared" ref="N5:N35" si="4">+IF(J5&lt;&gt;"",ABS(K5),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3">
+        <f>Utilidad!A3</f>
+        <v>117415.28965309721</v>
+      </c>
+      <c r="D6" s="2">
+        <f>IF(Utilidad!C3&gt;1,Utilidad!C3/100,Utilidad!C3)</f>
+        <v>0.6543171596230668</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="3">
+        <f>Utilidad!B3</f>
+        <v>117415.28965309721</v>
+      </c>
+      <c r="H6" s="2">
+        <f>IF(Utilidad!D3&gt;1,Utilidad!D3/100,Utilidad!D3)</f>
+        <v>0.6543171596230668</v>
+      </c>
+      <c r="J6" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="106"/>
+      <c r="M6" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B7" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3">
+        <f>Utilidad!A4</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f>IF(Utilidad!C4&gt;1,Utilidad!C4/100,Utilidad!C4)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Utilidad!B4</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <f>IF(Utilidad!D4&gt;1,Utilidad!D4/100,Utilidad!D4)</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B8" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <f>Utilidad!A5</f>
+        <v>117415.28965309721</v>
+      </c>
+      <c r="D8" s="2">
+        <f>IF(Utilidad!C5&gt;1,Utilidad!C5/100,Utilidad!C5)</f>
+        <v>0.6543171596230668</v>
+      </c>
+      <c r="F8" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="3">
+        <f>Utilidad!B5</f>
+        <v>117415.28965309721</v>
+      </c>
+      <c r="H8" s="2">
+        <f>IF(Utilidad!D5&gt;1,Utilidad!D5/100,Utilidad!D5)</f>
+        <v>0.6543171596230668</v>
+      </c>
+      <c r="J8" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="106"/>
+      <c r="M8" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B9" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3">
+        <f>Utilidad!A6</f>
+        <v>214.28587979820975</v>
+      </c>
+      <c r="D9" s="2">
+        <f>IF(Utilidad!C6&gt;1,Utilidad!C6/100,Utilidad!C6)</f>
+        <v>0.65731774861230396</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Utilidad!B6</f>
+        <v>214.28587979820975</v>
+      </c>
+      <c r="H9" s="2">
+        <f>IF(Utilidad!D6&gt;1,Utilidad!D6/100,Utilidad!D6)</f>
+        <v>0.65731774861230396</v>
+      </c>
+      <c r="J9" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="106"/>
+      <c r="M9" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B10" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3">
+        <f>Utilidad!A7</f>
+        <v>117201.00377330006</v>
+      </c>
+      <c r="D10" s="2">
+        <f>IF(Utilidad!C7&gt;1,Utilidad!C7/100,Utilidad!C7)</f>
+        <v>0.65431167345956198</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="3">
+        <f>Utilidad!B7</f>
+        <v>117201.00377330006</v>
+      </c>
+      <c r="H10" s="2">
+        <f>IF(Utilidad!D7&gt;1,Utilidad!D7/100,Utilidad!D7)</f>
+        <v>0.65431167345956198</v>
+      </c>
+      <c r="J10" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="106"/>
+      <c r="M10" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B11" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <f>Utilidad!A8</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f>IF(Utilidad!C8&gt;1,Utilidad!C8/100,Utilidad!C8)</f>
+        <v>0.6573</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <f>Utilidad!B8</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <f>IF(Utilidad!D8&gt;1,Utilidad!D8/100,Utilidad!D8)</f>
+        <v>0.6573</v>
+      </c>
+      <c r="J11" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="106"/>
+      <c r="M11" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="3">
+        <f>Utilidad!A9</f>
+        <v>117201.00377330006</v>
+      </c>
+      <c r="D12" s="2">
+        <f>IF(Utilidad!C9&gt;1,Utilidad!C9/100,Utilidad!C9)</f>
+        <v>0.65431167345956198</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="3">
+        <f>Utilidad!B9</f>
+        <v>117201.00377330006</v>
+      </c>
+      <c r="H12" s="2">
+        <f>IF(Utilidad!D9&gt;1,Utilidad!D9/100,Utilidad!D9)</f>
+        <v>0.65431167345956198</v>
+      </c>
+      <c r="J12" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="106"/>
+      <c r="M12" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="3">
+        <f>Utilidad!A10</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <f>IF(Utilidad!C10&gt;1,Utilidad!C10/100,Utilidad!C10)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="3">
+        <f>Utilidad!B10</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f>IF(Utilidad!D10&gt;1,Utilidad!D10/100,Utilidad!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="106"/>
+      <c r="M13" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B14" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3">
+        <f>Utilidad!A11</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f>IF(Utilidad!C11&gt;1,Utilidad!C11/100,Utilidad!C11)</f>
+        <v>0.65431167345956198</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="3">
+        <f>Utilidad!B11</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <f>IF(Utilidad!D11&gt;1,Utilidad!D11/100,Utilidad!D11)</f>
+        <v>0.65431167345956198</v>
+      </c>
+      <c r="J14" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="106"/>
+      <c r="M14" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3">
+        <f>Utilidad!A12</f>
+        <v>-4694.9962266999401</v>
+      </c>
+      <c r="D15" s="2">
+        <f>IF(Utilidad!C12&gt;1,Utilidad!C12/100,Utilidad!C12)</f>
+        <v>0.64102711639907584</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3">
+        <f>Utilidad!B12</f>
+        <v>-4694.9962266999401</v>
+      </c>
+      <c r="H15" s="2">
+        <f>IF(Utilidad!D12&gt;1,Utilidad!D12/100,Utilidad!D12)</f>
+        <v>0.64102711639907584</v>
+      </c>
+      <c r="J15" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="106"/>
+      <c r="M15" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B16" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="3">
+        <f>Utilidad!A13</f>
+        <v>121896</v>
+      </c>
+      <c r="D16" s="2">
+        <f>IF(Utilidad!C13&gt;1,Utilidad!C13/100,Utilidad!C13)</f>
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="3">
+        <f>Utilidad!B13</f>
+        <v>121896</v>
+      </c>
+      <c r="H16" s="2">
+        <f>IF(Utilidad!D13&gt;1,Utilidad!D13/100,Utilidad!D13)</f>
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="J16" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="106"/>
+      <c r="M16" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B17" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3">
+        <f>Utilidad!A14</f>
+        <v>73073.256251293904</v>
+      </c>
+      <c r="D17" s="2">
+        <f>IF(Utilidad!C14&gt;1,Utilidad!C14/100,Utilidad!C14)</f>
+        <v>0.64890549893004068</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="3">
+        <f>Utilidad!B14</f>
+        <v>73073.256251293904</v>
+      </c>
+      <c r="H17" s="2">
+        <f>IF(Utilidad!D14&gt;1,Utilidad!D14/100,Utilidad!D14)</f>
+        <v>0.64890549893004068</v>
+      </c>
+      <c r="J17" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="106"/>
+      <c r="M17" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B18" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="3">
+        <f>Utilidad!A15</f>
+        <v>152.41625129390741</v>
+      </c>
+      <c r="D18" s="2">
+        <f>IF(Utilidad!C15&gt;1,Utilidad!C15/100,Utilidad!C15)</f>
+        <v>0.65067471721576897</v>
+      </c>
+      <c r="F18" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="3">
+        <f>Utilidad!B15</f>
+        <v>152.41625129390741</v>
+      </c>
+      <c r="H18" s="2">
+        <f>IF(Utilidad!D15&gt;1,Utilidad!D15/100,Utilidad!D15)</f>
+        <v>0.65067471721576897</v>
+      </c>
+      <c r="J18" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="106"/>
+      <c r="M18" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B19" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="3">
+        <f>Utilidad!A16</f>
+        <v>72920.84</v>
+      </c>
+      <c r="D19" s="2">
+        <f>IF(Utilidad!C16&gt;1,Utilidad!C16/100,Utilidad!C16)</f>
+        <v>0.64890180098006056</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="3">
+        <f>Utilidad!B16</f>
+        <v>72920.84</v>
+      </c>
+      <c r="H19" s="2">
+        <f>IF(Utilidad!D16&gt;1,Utilidad!D16/100,Utilidad!D16)</f>
+        <v>0.64890180098006056</v>
+      </c>
+      <c r="J19" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="106"/>
+      <c r="M19" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B20" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="3">
+        <f>Utilidad!A17</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <f>IF(Utilidad!C17&gt;1,Utilidad!C17/100,Utilidad!C17)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="3">
+        <f>Utilidad!B17</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <f>IF(Utilidad!D17&gt;1,Utilidad!D17/100,Utilidad!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="106"/>
+      <c r="M20" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B21" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="3">
+        <f>Utilidad!A18</f>
+        <v>72920.84</v>
+      </c>
+      <c r="D21" s="2">
+        <f>IF(Utilidad!C18&gt;1,Utilidad!C18/100,Utilidad!C18)</f>
+        <v>0.64890180098006056</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="3">
+        <f>Utilidad!B18</f>
+        <v>72920.84</v>
+      </c>
+      <c r="H21" s="2">
+        <f>IF(Utilidad!D18&gt;1,Utilidad!D18/100,Utilidad!D18)</f>
+        <v>0.64890180098006056</v>
+      </c>
+      <c r="J21" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="106"/>
+      <c r="M21" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B22" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3">
+        <f>Utilidad!A19</f>
+        <v>73.999946397426484</v>
+      </c>
+      <c r="D22" s="2">
+        <f>IF(Utilidad!C19&gt;1,Utilidad!C19/100,Utilidad!C19)</f>
+        <v>0.65067471721576897</v>
+      </c>
+      <c r="F22" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="3">
+        <f>Utilidad!B19</f>
+        <v>73.999946397426484</v>
+      </c>
+      <c r="H22" s="2">
+        <f>IF(Utilidad!D19&gt;1,Utilidad!D19/100,Utilidad!D19)</f>
+        <v>0.65067471721576897</v>
+      </c>
+      <c r="J22" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="106"/>
+      <c r="M22" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B23" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="3">
+        <f>Utilidad!A20</f>
+        <v>72846.840053602573</v>
+      </c>
+      <c r="D23" s="2">
+        <f>IF(Utilidad!C20&gt;1,Utilidad!C20/100,Utilidad!C20)</f>
+        <v>0.64889999999999992</v>
+      </c>
+      <c r="F23" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="3">
+        <f>Utilidad!B20</f>
+        <v>72846.840053602573</v>
+      </c>
+      <c r="H23" s="2">
+        <f>IF(Utilidad!D20&gt;1,Utilidad!D20/100,Utilidad!D20)</f>
+        <v>0.64889999999999992</v>
+      </c>
+      <c r="J23" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="106"/>
+      <c r="M23" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B24" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3">
+        <f>Utilidad!A21</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <f>IF(Utilidad!C21&gt;1,Utilidad!C21/100,Utilidad!C21)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3">
+        <f>Utilidad!B21</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <f>IF(Utilidad!D21&gt;1,Utilidad!D21/100,Utilidad!D21)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="106"/>
+      <c r="M24" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B25" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <f>Utilidad!A22</f>
+        <v>72846.840053602573</v>
+      </c>
+      <c r="D25" s="2">
+        <f>IF(Utilidad!C22&gt;1,Utilidad!C22/100,Utilidad!C22)</f>
+        <v>0.64889999999999992</v>
+      </c>
+      <c r="F25" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="3">
+        <f>Utilidad!B22</f>
+        <v>72846.840053602573</v>
+      </c>
+      <c r="H25" s="2">
+        <f>IF(Utilidad!D22&gt;1,Utilidad!D22/100,Utilidad!D22)</f>
+        <v>0.64889999999999992</v>
+      </c>
+      <c r="J25" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="106"/>
+      <c r="M25" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B26" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <f>Utilidad!A23</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f>IF(Utilidad!C23&gt;1,Utilidad!C23/100,Utilidad!C23)</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="3">
+        <f>Utilidad!B23</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <f>IF(Utilidad!D23&gt;1,Utilidad!D23/100,Utilidad!D23)</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="106"/>
+      <c r="M26" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="3">
+        <f>Utilidad!A24</f>
+        <v>72846.840053602587</v>
+      </c>
+      <c r="D27" s="2">
+        <f>IF(Utilidad!C24&gt;1,Utilidad!C24/100,Utilidad!C24)</f>
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="F27" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="3">
+        <f>Utilidad!B24</f>
+        <v>72846.840053602587</v>
+      </c>
+      <c r="H27" s="2">
+        <f>IF(Utilidad!D24&gt;1,Utilidad!D24/100,Utilidad!D24)</f>
+        <v>0.64890000000000003</v>
+      </c>
+      <c r="J27" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="106"/>
+      <c r="M27" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B28" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <f>Utilidad!A25</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <f>IF(Utilidad!C25&gt;1,Utilidad!C25/100,Utilidad!C25)</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="3">
+        <f>Utilidad!B25</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <f>IF(Utilidad!D25&gt;1,Utilidad!D25/100,Utilidad!D25)</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="106"/>
+      <c r="M28" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B29" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="3">
+        <f>Utilidad!A26</f>
+        <v>15475.332453602576</v>
+      </c>
+      <c r="D29" s="2">
+        <f>IF(Utilidad!C26&gt;1,Utilidad!C26/100,Utilidad!C26)</f>
+        <v>0.63518302232404666</v>
+      </c>
+      <c r="F29" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="3">
+        <f>Utilidad!B26</f>
+        <v>15475.332453602576</v>
+      </c>
+      <c r="H29" s="2">
+        <f>IF(Utilidad!D26&gt;1,Utilidad!D26/100,Utilidad!D26)</f>
+        <v>0.63518302232404666</v>
+      </c>
+      <c r="J29" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="106"/>
+      <c r="M29" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B30" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3">
+        <f>Utilidad!A27</f>
+        <v>57371.507599999997</v>
+      </c>
+      <c r="D30" s="2">
+        <f>IF(Utilidad!C27&gt;1,Utilidad!C27/100,Utilidad!C27)</f>
+        <v>0.65259999999999996</v>
+      </c>
+      <c r="F30" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="3">
+        <f>Utilidad!B27</f>
+        <v>57371.507599999997</v>
+      </c>
+      <c r="H30" s="2">
+        <f>IF(Utilidad!D27&gt;1,Utilidad!D27/100,Utilidad!D27)</f>
+        <v>0.65259999999999996</v>
+      </c>
+      <c r="J30" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="106"/>
+      <c r="M30" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B31" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="3">
+        <f>Utilidad!A28</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <f>IF(Utilidad!C28&gt;1,Utilidad!C28/100,Utilidad!C28)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3">
+        <f>Utilidad!B28</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <f>IF(Utilidad!D28&gt;1,Utilidad!D28/100,Utilidad!D28)</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="106"/>
+      <c r="M31" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B32" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="3">
+        <f>Utilidad!A29</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <f>IF(Utilidad!C29&gt;1,Utilidad!C29/100,Utilidad!C29)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3">
+        <f>Utilidad!B29</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <f>IF(Utilidad!D29&gt;1,Utilidad!D29/100,Utilidad!D29)</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="106"/>
+      <c r="M32" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B33" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3">
+        <f>Utilidad!A30</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <f>IF(Utilidad!C30&gt;1,Utilidad!C30/100,Utilidad!C30)</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="3">
+        <f>Utilidad!B30</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <f>IF(Utilidad!D30&gt;1,Utilidad!D30/100,Utilidad!D30)</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="106"/>
+      <c r="M33" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B34" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="3">
+        <f>Utilidad!A31</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <f>IF(Utilidad!C31&gt;1,Utilidad!C31/100,Utilidad!C31)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="3">
+        <f>Utilidad!B31</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <f>IF(Utilidad!D31&gt;1,Utilidad!D31/100,Utilidad!D31)</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="106"/>
+      <c r="M34" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="19" x14ac:dyDescent="0.25">
+      <c r="B35" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3">
+        <f>Utilidad!A32</f>
+        <v>179267.50760000001</v>
+      </c>
+      <c r="D35" s="2">
+        <f>IF(Utilidad!C32&gt;1,Utilidad!C32/100,Utilidad!C32)</f>
+        <v>0.65341596047135531</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="3">
+        <f>Utilidad!B32</f>
+        <v>179267.50760000001</v>
+      </c>
+      <c r="H35" s="2">
+        <f>IF(Utilidad!D32&gt;1,Utilidad!D32/100,Utilidad!D32)</f>
+        <v>0.65341596047135531</v>
+      </c>
+      <c r="J35" s="105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="106"/>
+      <c r="M35" s="107">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="108">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="J4:K35">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>ABS(J4)&gt;=10%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4:L35">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>ABS(L4)&gt;=10%</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:S90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
-    <col min="2" max="8" width="10.83203125" style="4"/>
+    <col min="2" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="19.6640625" style="4" customWidth="1"/>
+    <col min="6" max="8" width="10.83203125" style="4"/>
     <col min="9" max="9" width="17.5" style="4" customWidth="1"/>
     <col min="10" max="13" width="10.83203125" style="4"/>
     <col min="14" max="14" width="10.83203125" style="4" customWidth="1"/>
@@ -37923,8 +39143,8 @@
     <col min="18" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="16" thickBot="1"/>
-    <row r="2" spans="2:19">
+    <row r="1" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
@@ -37944,7 +39164,7 @@
       <c r="R2" s="6"/>
       <c r="S2" s="7"/>
     </row>
-    <row r="3" spans="2:19" ht="21">
+    <row r="3" spans="2:19" ht="21" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="9" t="s">
         <v>22</v>
@@ -37974,7 +39194,7 @@
       </c>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="2:19" ht="16">
+    <row r="4" spans="2:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="8"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -38000,7 +39220,7 @@
       </c>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="2:19" ht="19">
+    <row r="5" spans="2:19" ht="19" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -38026,7 +39246,7 @@
       </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="2:19">
+    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B6" s="8"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -38049,7 +39269,7 @@
       </c>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="2:19">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B7" s="8"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -38075,7 +39295,7 @@
       </c>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="2:19">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="8"/>
       <c r="C8" s="10" t="s">
         <v>41</v>
@@ -38105,7 +39325,7 @@
       </c>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="2:19">
+    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B9" s="8"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -38131,7 +39351,7 @@
       </c>
       <c r="S9" s="12"/>
     </row>
-    <row r="10" spans="2:19">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B10" s="8"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -38157,7 +39377,7 @@
       </c>
       <c r="S10" s="12"/>
     </row>
-    <row r="11" spans="2:19">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B11" s="8"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -38183,7 +39403,7 @@
       </c>
       <c r="S11" s="12"/>
     </row>
-    <row r="12" spans="2:19">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
       <c r="C12" s="22" t="s">
         <v>0</v>
@@ -38210,7 +39430,7 @@
       <c r="R12" s="10"/>
       <c r="S12" s="12"/>
     </row>
-    <row r="13" spans="2:19">
+    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -38233,7 +39453,7 @@
       </c>
       <c r="S13" s="12"/>
     </row>
-    <row r="14" spans="2:19">
+    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -38259,7 +39479,7 @@
       </c>
       <c r="S14" s="12"/>
     </row>
-    <row r="15" spans="2:19">
+    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -38285,7 +39505,7 @@
       </c>
       <c r="S15" s="12"/>
     </row>
-    <row r="16" spans="2:19">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -38308,7 +39528,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="2:19">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -38328,7 +39548,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="12"/>
     </row>
-    <row r="18" spans="2:19">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -38351,7 +39571,7 @@
       </c>
       <c r="S18" s="12"/>
     </row>
-    <row r="19" spans="2:19">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -38377,7 +39597,7 @@
       </c>
       <c r="S19" s="12"/>
     </row>
-    <row r="20" spans="2:19">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -38403,7 +39623,7 @@
       </c>
       <c r="S20" s="12"/>
     </row>
-    <row r="21" spans="2:19">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B21" s="8"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -38426,7 +39646,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="12"/>
     </row>
-    <row r="22" spans="2:19">
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -38460,7 +39680,7 @@
       </c>
       <c r="S22" s="12"/>
     </row>
-    <row r="23" spans="2:19" ht="22" customHeight="1">
+    <row r="23" spans="2:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="8"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -38492,7 +39712,7 @@
       </c>
       <c r="S23" s="12"/>
     </row>
-    <row r="24" spans="2:19">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B24" s="8"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -38524,7 +39744,7 @@
       </c>
       <c r="S24" s="12"/>
     </row>
-    <row r="25" spans="2:19">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="10" t="s">
         <v>37</v>
@@ -38552,7 +39772,7 @@
       </c>
       <c r="S25" s="12"/>
     </row>
-    <row r="26" spans="2:19">
+    <row r="26" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -38578,7 +39798,7 @@
       </c>
       <c r="S26" s="12"/>
     </row>
-    <row r="27" spans="2:19">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -38607,7 +39827,7 @@
       </c>
       <c r="S27" s="12"/>
     </row>
-    <row r="28" spans="2:19">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B28" s="8"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -38627,7 +39847,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="12"/>
     </row>
-    <row r="29" spans="2:19">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B29" s="8"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -38653,7 +39873,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="12"/>
     </row>
-    <row r="30" spans="2:19">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B30" s="8"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -38682,7 +39902,7 @@
       </c>
       <c r="S30" s="12"/>
     </row>
-    <row r="31" spans="2:19">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B31" s="8"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -38714,7 +39934,7 @@
       </c>
       <c r="S31" s="12"/>
     </row>
-    <row r="32" spans="2:19" ht="14.5" customHeight="1">
+    <row r="32" spans="2:19" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="8"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -38725,7 +39945,7 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="84" t="s">
+      <c r="I32" s="90" t="s">
         <v>39</v>
       </c>
       <c r="J32" s="10"/>
@@ -38742,7 +39962,7 @@
       </c>
       <c r="S32" s="12"/>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="8"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -38753,7 +39973,7 @@
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
-      <c r="I33" s="84"/>
+      <c r="I33" s="90"/>
       <c r="J33" s="10"/>
       <c r="K33" s="27">
         <f>+K29-K39</f>
@@ -38768,7 +39988,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="12"/>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -38776,7 +39996,7 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="10"/>
-      <c r="I34" s="84"/>
+      <c r="I34" s="90"/>
       <c r="J34" s="10"/>
       <c r="K34" s="25">
         <f>+Utilidad!K67</f>
@@ -38791,7 +40011,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="12"/>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -38799,7 +40019,7 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="10"/>
-      <c r="I35" s="84"/>
+      <c r="I35" s="90"/>
       <c r="J35" s="10"/>
       <c r="K35" s="28">
         <f>+Utilidad!L67</f>
@@ -38817,7 +40037,7 @@
       <c r="R35" s="10"/>
       <c r="S35" s="12"/>
     </row>
-    <row r="36" spans="2:19" ht="20.25" customHeight="1">
+    <row r="36" spans="2:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -38840,7 +40060,7 @@
       <c r="R36" s="10"/>
       <c r="S36" s="12"/>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -38863,7 +40083,7 @@
       <c r="R37" s="10"/>
       <c r="S37" s="12"/>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -38886,7 +40106,7 @@
       <c r="R38" s="10"/>
       <c r="S38" s="12"/>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -38915,7 +40135,7 @@
       </c>
       <c r="S39" s="12"/>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -38950,7 +40170,7 @@
       </c>
       <c r="S40" s="12"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="8"/>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -38982,7 +40202,7 @@
       </c>
       <c r="S41" s="12"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="8"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -39014,7 +40234,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="12"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="8"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -39040,7 +40260,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="12"/>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -39066,7 +40286,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -39089,7 +40309,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="12"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -39112,7 +40332,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="12"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -39135,7 +40355,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="12"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -39155,7 +40375,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="12"/>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -39175,7 +40395,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="12"/>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -39195,7 +40415,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="12"/>
     </row>
-    <row r="51" spans="2:19">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -39215,7 +40435,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="12"/>
     </row>
-    <row r="52" spans="2:19">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -39235,7 +40455,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="12"/>
     </row>
-    <row r="53" spans="2:19" ht="16" thickBot="1">
+    <row r="53" spans="2:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
@@ -39255,274 +40475,274 @@
       <c r="R53" s="33"/>
       <c r="S53" s="34"/>
     </row>
-    <row r="55" spans="2:19" ht="16">
+    <row r="55" spans="2:19" ht="16" x14ac:dyDescent="0.2">
       <c r="G55" s="35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:19" ht="19">
-      <c r="G56" s="85" t="s">
+    <row r="56" spans="2:19" ht="19" x14ac:dyDescent="0.2">
+      <c r="G56" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="85"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="87" t="s">
+      <c r="H56" s="91"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="K56" s="87"/>
-      <c r="L56" s="87"/>
-      <c r="M56" s="88" t="s">
+      <c r="K56" s="93"/>
+      <c r="L56" s="93"/>
+      <c r="M56" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="N56" s="88"/>
-      <c r="O56" s="88"/>
-      <c r="P56" s="88"/>
+      <c r="N56" s="94"/>
+      <c r="O56" s="94"/>
+      <c r="P56" s="94"/>
     </row>
-    <row r="57" spans="2:19" ht="24.75" customHeight="1">
-      <c r="G57" s="78" t="s">
+    <row r="57" spans="2:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="H57" s="79"/>
+      <c r="H57" s="85"/>
       <c r="I57" s="36">
         <f>+E3</f>
         <v>116693.36667490551</v>
       </c>
-      <c r="J57" s="73" t="s">
+      <c r="J57" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="K57" s="73"/>
+      <c r="K57" s="79"/>
       <c r="L57" s="37">
         <f>+Utilidad!J39</f>
         <v>-721.92297814554104</v>
       </c>
-      <c r="M57" s="74" t="s">
+      <c r="M57" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="N57" s="74"/>
-      <c r="O57" s="74"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
       <c r="P57" s="37">
         <f>+K45</f>
         <v>179267.50760000001</v>
       </c>
     </row>
-    <row r="58" spans="2:19" ht="24.75" customHeight="1">
-      <c r="G58" s="78" t="s">
+    <row r="58" spans="2:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G58" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H58" s="79"/>
+      <c r="H58" s="85"/>
       <c r="I58" s="36">
         <f>+R3</f>
         <v>73073.256251293904</v>
       </c>
-      <c r="J58" s="73" t="s">
+      <c r="J58" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="K58" s="73"/>
+      <c r="K58" s="79"/>
       <c r="L58" s="37">
         <f>+Utilidad!J41</f>
         <v>0</v>
       </c>
-      <c r="M58" s="74"/>
-      <c r="N58" s="74"/>
-      <c r="O58" s="74"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
       <c r="P58" s="37"/>
     </row>
-    <row r="59" spans="2:19" ht="24.75" customHeight="1">
+    <row r="59" spans="2:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G59" s="38"/>
       <c r="H59" s="39"/>
       <c r="I59" s="36"/>
-      <c r="J59" s="73" t="s">
+      <c r="J59" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="K59" s="73"/>
+      <c r="K59" s="79"/>
       <c r="L59" s="37">
         <f>+Utilidad!J43</f>
         <v>214.28587979820975</v>
       </c>
-      <c r="M59" s="74"/>
-      <c r="N59" s="74"/>
-      <c r="O59" s="74"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
       <c r="P59" s="37"/>
     </row>
-    <row r="60" spans="2:19" ht="24.75" customHeight="1">
+    <row r="60" spans="2:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G60" s="38"/>
       <c r="H60" s="39"/>
       <c r="I60" s="36"/>
-      <c r="J60" s="73" t="s">
+      <c r="J60" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="K60" s="73"/>
+      <c r="K60" s="79"/>
       <c r="L60" s="37">
         <v>0</v>
       </c>
-      <c r="M60" s="74"/>
-      <c r="N60" s="74"/>
-      <c r="O60" s="74"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
       <c r="P60" s="37"/>
     </row>
-    <row r="61" spans="2:19" ht="24.75" customHeight="1">
+    <row r="61" spans="2:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G61" s="38"/>
       <c r="H61" s="39"/>
       <c r="I61" s="36"/>
-      <c r="J61" s="73" t="s">
+      <c r="J61" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="K61" s="73"/>
+      <c r="K61" s="79"/>
       <c r="L61" s="37">
         <f>+Utilidad!J49</f>
         <v>-4694.9962266999401</v>
       </c>
-      <c r="M61" s="74"/>
-      <c r="N61" s="74"/>
-      <c r="O61" s="74"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
       <c r="P61" s="37"/>
     </row>
-    <row r="62" spans="2:19" ht="24.75" customHeight="1">
+    <row r="62" spans="2:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G62" s="38"/>
       <c r="H62" s="39"/>
       <c r="I62" s="36"/>
-      <c r="J62" s="73" t="s">
+      <c r="J62" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="K62" s="73"/>
+      <c r="K62" s="79"/>
       <c r="L62" s="37">
         <f>+Utilidad!J52</f>
         <v>152.41625129390741</v>
       </c>
-      <c r="M62" s="74"/>
-      <c r="N62" s="74"/>
-      <c r="O62" s="74"/>
+      <c r="M62" s="80"/>
+      <c r="N62" s="80"/>
+      <c r="O62" s="80"/>
       <c r="P62" s="37"/>
     </row>
-    <row r="63" spans="2:19" ht="24.75" customHeight="1">
+    <row r="63" spans="2:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G63" s="38"/>
       <c r="H63" s="39"/>
       <c r="I63" s="36"/>
-      <c r="J63" s="73" t="s">
+      <c r="J63" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="K63" s="73"/>
+      <c r="K63" s="79"/>
       <c r="L63" s="37">
         <f>+Utilidad!J54</f>
         <v>0</v>
       </c>
-      <c r="M63" s="74"/>
-      <c r="N63" s="74"/>
-      <c r="O63" s="74"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
       <c r="P63" s="37"/>
     </row>
-    <row r="64" spans="2:19" ht="24.75" customHeight="1">
+    <row r="64" spans="2:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G64" s="38"/>
       <c r="H64" s="39"/>
       <c r="I64" s="36"/>
-      <c r="J64" s="73" t="s">
+      <c r="J64" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="K64" s="73"/>
+      <c r="K64" s="79"/>
       <c r="L64" s="37">
         <f>+Utilidad!J56</f>
         <v>73.999946397426484</v>
       </c>
-      <c r="M64" s="74"/>
-      <c r="N64" s="74"/>
-      <c r="O64" s="74"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="80"/>
       <c r="P64" s="37"/>
     </row>
-    <row r="65" spans="7:16" ht="24.75" customHeight="1">
+    <row r="65" spans="7:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G65" s="38"/>
       <c r="H65" s="39"/>
       <c r="I65" s="36"/>
-      <c r="J65" s="73" t="s">
+      <c r="J65" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="K65" s="73"/>
+      <c r="K65" s="79"/>
       <c r="L65" s="37">
         <v>0</v>
       </c>
-      <c r="M65" s="74"/>
-      <c r="N65" s="74"/>
-      <c r="O65" s="74"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
       <c r="P65" s="37"/>
     </row>
-    <row r="66" spans="7:16" ht="24.75" customHeight="1">
+    <row r="66" spans="7:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G66" s="38"/>
       <c r="H66" s="39"/>
       <c r="I66" s="36"/>
-      <c r="J66" s="73" t="s">
+      <c r="J66" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="K66" s="73"/>
+      <c r="K66" s="79"/>
       <c r="L66" s="37">
         <f>+Utilidad!J63</f>
         <v>15475.332453602576</v>
       </c>
-      <c r="M66" s="74"/>
-      <c r="N66" s="74"/>
-      <c r="O66" s="74"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
       <c r="P66" s="37"/>
     </row>
-    <row r="67" spans="7:16" ht="24.75" customHeight="1">
-      <c r="G67" s="78"/>
-      <c r="H67" s="79"/>
+    <row r="67" spans="7:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="84"/>
+      <c r="H67" s="85"/>
       <c r="I67" s="36"/>
-      <c r="J67" s="73" t="s">
+      <c r="J67" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="K67" s="73"/>
+      <c r="K67" s="79"/>
       <c r="L67" s="37">
         <f>+K27</f>
         <v>0</v>
       </c>
-      <c r="M67" s="74"/>
-      <c r="N67" s="74"/>
-      <c r="O67" s="74"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
       <c r="P67" s="37"/>
     </row>
-    <row r="68" spans="7:16" ht="29.25" customHeight="1">
-      <c r="G68" s="71"/>
-      <c r="H68" s="72"/>
+    <row r="68" spans="7:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G68" s="77"/>
+      <c r="H68" s="78"/>
       <c r="I68" s="36"/>
-      <c r="J68" s="73" t="s">
+      <c r="J68" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="K68" s="73"/>
+      <c r="K68" s="79"/>
       <c r="L68" s="37">
         <f>+K33</f>
         <v>0</v>
       </c>
-      <c r="M68" s="74"/>
-      <c r="N68" s="74"/>
-      <c r="O68" s="74"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
       <c r="P68" s="37"/>
     </row>
-    <row r="69" spans="7:16" ht="19">
-      <c r="G69" s="75" t="s">
+    <row r="69" spans="7:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="G69" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H69" s="76"/>
+      <c r="H69" s="82"/>
       <c r="I69" s="40">
         <f>+SUM(I57:I68)</f>
         <v>189766.6229261994</v>
       </c>
-      <c r="J69" s="77" t="s">
+      <c r="J69" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="K69" s="77"/>
+      <c r="K69" s="83"/>
       <c r="L69" s="41">
         <f>+SUM(L57:L68)</f>
         <v>10499.115326246638</v>
       </c>
-      <c r="M69" s="77" t="s">
+      <c r="M69" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="N69" s="77"/>
-      <c r="O69" s="77"/>
+      <c r="N69" s="83"/>
+      <c r="O69" s="83"/>
       <c r="P69" s="40">
         <f>+SUM(P57:P68)</f>
         <v>179267.50760000001</v>
       </c>
     </row>
-    <row r="71" spans="7:16" ht="19">
+    <row r="71" spans="7:16" ht="19" x14ac:dyDescent="0.2">
       <c r="L71" s="42" t="s">
         <v>50</v>
       </c>
@@ -39534,274 +40754,274 @@
         <v>-4.7235516831278801E-8</v>
       </c>
     </row>
-    <row r="74" spans="7:16" ht="16">
+    <row r="74" spans="7:16" ht="16" x14ac:dyDescent="0.2">
       <c r="G74" s="35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="75" spans="7:16" ht="19">
-      <c r="G75" s="80" t="s">
+    <row r="75" spans="7:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="G75" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="H75" s="80"/>
-      <c r="I75" s="81"/>
-      <c r="J75" s="82" t="s">
+      <c r="H75" s="86"/>
+      <c r="I75" s="87"/>
+      <c r="J75" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="K75" s="82"/>
-      <c r="L75" s="82"/>
-      <c r="M75" s="83" t="s">
+      <c r="K75" s="88"/>
+      <c r="L75" s="88"/>
+      <c r="M75" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="N75" s="83"/>
-      <c r="O75" s="83"/>
-      <c r="P75" s="83"/>
+      <c r="N75" s="89"/>
+      <c r="O75" s="89"/>
+      <c r="P75" s="89"/>
     </row>
-    <row r="76" spans="7:16">
-      <c r="G76" s="78" t="s">
+    <row r="76" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G76" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="H76" s="79"/>
+      <c r="H76" s="85"/>
       <c r="I76" s="36">
         <f>+E5</f>
         <v>76352.349884964045</v>
       </c>
-      <c r="J76" s="73" t="s">
+      <c r="J76" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="K76" s="73"/>
+      <c r="K76" s="79"/>
       <c r="L76" s="37">
         <f>+Utilidad!L39</f>
         <v>-474.48893717412557</v>
       </c>
-      <c r="M76" s="74" t="s">
+      <c r="M76" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="N76" s="74"/>
-      <c r="O76" s="74"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="80"/>
       <c r="P76" s="37">
         <f>+K47</f>
         <v>117136.25065976</v>
       </c>
     </row>
-    <row r="77" spans="7:16">
-      <c r="G77" s="78" t="s">
+    <row r="77" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G77" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="H77" s="79"/>
+      <c r="H77" s="85"/>
       <c r="I77" s="36">
         <f>+R5</f>
         <v>47417.637806188584</v>
       </c>
-      <c r="J77" s="73" t="s">
+      <c r="J77" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="K77" s="73"/>
+      <c r="K77" s="79"/>
       <c r="L77" s="37">
         <f>+Utilidad!L41</f>
         <v>0</v>
       </c>
-      <c r="M77" s="74"/>
-      <c r="N77" s="74"/>
-      <c r="O77" s="74"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="80"/>
       <c r="P77" s="37"/>
     </row>
-    <row r="78" spans="7:16">
+    <row r="78" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G78" s="38"/>
       <c r="H78" s="39"/>
       <c r="I78" s="36"/>
-      <c r="J78" s="73" t="s">
+      <c r="J78" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="K78" s="73"/>
+      <c r="K78" s="79"/>
       <c r="L78" s="37">
         <f>+Utilidad!L43</f>
         <v>140.85391206836601</v>
       </c>
-      <c r="M78" s="74"/>
-      <c r="N78" s="74"/>
-      <c r="O78" s="74"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="80"/>
       <c r="P78" s="37"/>
     </row>
-    <row r="79" spans="7:16">
+    <row r="79" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G79" s="38"/>
       <c r="H79" s="39"/>
       <c r="I79" s="36"/>
-      <c r="J79" s="73" t="s">
+      <c r="J79" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="K79" s="73"/>
+      <c r="K79" s="79"/>
       <c r="L79" s="37">
         <v>0</v>
       </c>
-      <c r="M79" s="74"/>
-      <c r="N79" s="74"/>
-      <c r="O79" s="74"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="80"/>
       <c r="P79" s="37"/>
     </row>
-    <row r="80" spans="7:16">
+    <row r="80" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G80" s="38"/>
       <c r="H80" s="39"/>
       <c r="I80" s="36"/>
-      <c r="J80" s="73" t="s">
+      <c r="J80" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="K80" s="73"/>
+      <c r="K80" s="79"/>
       <c r="L80" s="37">
         <f>+Utilidad!L49</f>
         <v>-3009.6198927060045</v>
       </c>
-      <c r="M80" s="74"/>
-      <c r="N80" s="74"/>
-      <c r="O80" s="74"/>
+      <c r="M80" s="80"/>
+      <c r="N80" s="80"/>
+      <c r="O80" s="80"/>
       <c r="P80" s="37"/>
     </row>
-    <row r="81" spans="7:16">
+    <row r="81" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G81" s="38"/>
       <c r="H81" s="39"/>
       <c r="I81" s="36"/>
-      <c r="J81" s="73" t="s">
+      <c r="J81" s="79" t="s">
         <v>54</v>
       </c>
-      <c r="K81" s="73"/>
+      <c r="K81" s="79"/>
       <c r="L81" s="37">
         <f>+Utilidad!L52</f>
         <v>99.173401209750779</v>
       </c>
-      <c r="M81" s="74"/>
-      <c r="N81" s="74"/>
-      <c r="O81" s="74"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="80"/>
       <c r="P81" s="37"/>
     </row>
-    <row r="82" spans="7:16">
+    <row r="82" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G82" s="38"/>
       <c r="H82" s="39"/>
       <c r="I82" s="36"/>
-      <c r="J82" s="73" t="s">
+      <c r="J82" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="K82" s="73"/>
+      <c r="K82" s="79"/>
       <c r="L82" s="37">
         <f>+Utilidad!L54</f>
         <v>0</v>
       </c>
-      <c r="M82" s="74"/>
-      <c r="N82" s="74"/>
-      <c r="O82" s="74"/>
+      <c r="M82" s="80"/>
+      <c r="N82" s="80"/>
+      <c r="O82" s="80"/>
       <c r="P82" s="37"/>
     </row>
-    <row r="83" spans="7:16">
+    <row r="83" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G83" s="38"/>
       <c r="H83" s="39"/>
       <c r="I83" s="36"/>
-      <c r="J83" s="73" t="s">
+      <c r="J83" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="K83" s="73"/>
+      <c r="K83" s="79"/>
       <c r="L83" s="37">
         <f>+Utilidad!L56</f>
         <v>48.149894196127541</v>
       </c>
-      <c r="M83" s="74"/>
-      <c r="N83" s="74"/>
-      <c r="O83" s="74"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
       <c r="P83" s="37"/>
     </row>
-    <row r="84" spans="7:16">
+    <row r="84" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G84" s="38"/>
       <c r="H84" s="39"/>
       <c r="I84" s="36"/>
-      <c r="J84" s="73" t="s">
+      <c r="J84" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="K84" s="73"/>
+      <c r="K84" s="79"/>
       <c r="L84" s="37">
         <v>0</v>
       </c>
-      <c r="M84" s="74"/>
-      <c r="N84" s="74"/>
-      <c r="O84" s="74"/>
+      <c r="M84" s="80"/>
+      <c r="N84" s="80"/>
+      <c r="O84" s="80"/>
       <c r="P84" s="37"/>
     </row>
-    <row r="85" spans="7:16">
+    <row r="85" spans="7:16" x14ac:dyDescent="0.2">
       <c r="G85" s="38"/>
       <c r="H85" s="39"/>
       <c r="I85" s="36"/>
-      <c r="J85" s="73" t="s">
+      <c r="J85" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="K85" s="73"/>
+      <c r="K85" s="79"/>
       <c r="L85" s="37">
         <f>+Utilidad!L63</f>
         <v>9829.6684393486885</v>
       </c>
-      <c r="M85" s="74"/>
-      <c r="N85" s="74"/>
-      <c r="O85" s="74"/>
+      <c r="M85" s="80"/>
+      <c r="N85" s="80"/>
+      <c r="O85" s="80"/>
       <c r="P85" s="37"/>
     </row>
-    <row r="86" spans="7:16">
-      <c r="G86" s="78"/>
-      <c r="H86" s="79"/>
+    <row r="86" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G86" s="84"/>
+      <c r="H86" s="85"/>
       <c r="I86" s="36"/>
-      <c r="J86" s="73" t="s">
+      <c r="J86" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="K86" s="73"/>
+      <c r="K86" s="79"/>
       <c r="L86" s="37">
         <f>+Utilidad!L65</f>
         <v>0</v>
       </c>
-      <c r="M86" s="74"/>
-      <c r="N86" s="74"/>
-      <c r="O86" s="74"/>
+      <c r="M86" s="80"/>
+      <c r="N86" s="80"/>
+      <c r="O86" s="80"/>
       <c r="P86" s="37"/>
     </row>
-    <row r="87" spans="7:16">
-      <c r="G87" s="71"/>
-      <c r="H87" s="72"/>
+    <row r="87" spans="7:16" x14ac:dyDescent="0.2">
+      <c r="G87" s="77"/>
+      <c r="H87" s="78"/>
       <c r="I87" s="36"/>
-      <c r="J87" s="73" t="s">
+      <c r="J87" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="K87" s="73"/>
+      <c r="K87" s="79"/>
       <c r="L87" s="37">
         <f>+Utilidad!L67</f>
         <v>0</v>
       </c>
-      <c r="M87" s="74"/>
-      <c r="N87" s="74"/>
-      <c r="O87" s="74"/>
+      <c r="M87" s="80"/>
+      <c r="N87" s="80"/>
+      <c r="O87" s="80"/>
       <c r="P87" s="37"/>
     </row>
-    <row r="88" spans="7:16" ht="19">
-      <c r="G88" s="75" t="s">
+    <row r="88" spans="7:16" ht="19" x14ac:dyDescent="0.2">
+      <c r="G88" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H88" s="76"/>
+      <c r="H88" s="82"/>
       <c r="I88" s="40">
         <f>+SUM(I76:I87)</f>
         <v>123769.98769115264</v>
       </c>
-      <c r="J88" s="77" t="s">
+      <c r="J88" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="K88" s="77"/>
+      <c r="K88" s="83"/>
       <c r="L88" s="41">
         <f>+SUM(L76:L87)</f>
         <v>6633.7368169428028</v>
       </c>
-      <c r="M88" s="77" t="s">
+      <c r="M88" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="N88" s="77"/>
-      <c r="O88" s="77"/>
+      <c r="N88" s="83"/>
+      <c r="O88" s="83"/>
       <c r="P88" s="40">
         <f>+SUM(P76:P87)</f>
         <v>117136.25065976</v>
       </c>
     </row>
-    <row r="90" spans="7:16" ht="19">
+    <row r="90" spans="7:16" ht="19" x14ac:dyDescent="0.2">
       <c r="L90" s="42" t="s">
         <v>50</v>
       </c>
